--- a/excel/1mo/two_line_alerts_1mo_backup.xlsx
+++ b/excel/1mo/two_line_alerts_1mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,6 +616,1077 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BRITANNIA.NS</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>37469</v>
+      </c>
+      <c r="C4" t="n">
+        <v>78</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>36586</v>
+      </c>
+      <c r="E4" t="n">
+        <v>49</v>
+      </c>
+      <c r="F4" t="n">
+        <v>46.20000076293945</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>37135</v>
+      </c>
+      <c r="H4" t="n">
+        <v>67</v>
+      </c>
+      <c r="I4" t="n">
+        <v>46</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.01111115349663628</v>
+      </c>
+      <c r="L4" t="n">
+        <v>46.74444728427463</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>37104</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>36708</v>
+      </c>
+      <c r="E5" t="n">
+        <v>54</v>
+      </c>
+      <c r="F5" t="n">
+        <v>52</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>36770</v>
+      </c>
+      <c r="H5" t="n">
+        <v>56</v>
+      </c>
+      <c r="I5" t="n">
+        <v>52</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>52</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DRREDDY.NS</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="C6" t="n">
+        <v>123</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>37561</v>
+      </c>
+      <c r="E6" t="n">
+        <v>82</v>
+      </c>
+      <c r="F6" t="n">
+        <v>299.5249938964844</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>38473</v>
+      </c>
+      <c r="H6" t="n">
+        <v>112</v>
+      </c>
+      <c r="I6" t="n">
+        <v>302.5</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0991668701171875</v>
+      </c>
+      <c r="L6" t="n">
+        <v>291.393310546875</v>
+      </c>
+      <c r="M6" t="n">
+        <v>10</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BRITANNIA.NS</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>39295</v>
+      </c>
+      <c r="C7" t="n">
+        <v>138</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>38899</v>
+      </c>
+      <c r="E7" t="n">
+        <v>125</v>
+      </c>
+      <c r="F7" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>38961</v>
+      </c>
+      <c r="H7" t="n">
+        <v>127</v>
+      </c>
+      <c r="I7" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HINDALCO.NS</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>39539</v>
+      </c>
+      <c r="C8" t="n">
+        <v>147</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>39142</v>
+      </c>
+      <c r="E8" t="n">
+        <v>134</v>
+      </c>
+      <c r="F8" t="n">
+        <v>108.7567291259766</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>39203</v>
+      </c>
+      <c r="H8" t="n">
+        <v>136</v>
+      </c>
+      <c r="I8" t="n">
+        <v>108.7567291259766</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>108.7567291259766</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>M&amp;M.NS</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="C9" t="n">
+        <v>246</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>41852</v>
+      </c>
+      <c r="E9" t="n">
+        <v>223</v>
+      </c>
+      <c r="F9" t="n">
+        <v>716.8499755859375</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="H9" t="n">
+        <v>235</v>
+      </c>
+      <c r="I9" t="n">
+        <v>721.0250244140625</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3479207356770833</v>
+      </c>
+      <c r="L9" t="n">
+        <v>639.2636515299479</v>
+      </c>
+      <c r="M9" t="n">
+        <v>10</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BPCL.NS</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="C10" t="n">
+        <v>296</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="E10" t="n">
+        <v>260</v>
+      </c>
+      <c r="F10" t="n">
+        <v>551.5499877929688</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="H10" t="n">
+        <v>285</v>
+      </c>
+      <c r="I10" t="n">
+        <v>549</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.10199951171875</v>
+      </c>
+      <c r="L10" t="n">
+        <v>578.0698608398437</v>
+      </c>
+      <c r="M10" t="n">
+        <v>10</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>36982</v>
+      </c>
+      <c r="C11" t="n">
+        <v>63</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>36251</v>
+      </c>
+      <c r="E11" t="n">
+        <v>39</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10.62222194671631</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>36647</v>
+      </c>
+      <c r="H11" t="n">
+        <v>52</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10.56666564941406</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.004273561330942007</v>
+      </c>
+      <c r="L11" t="n">
+        <v>10.78889083862305</v>
+      </c>
+      <c r="M11" t="n">
+        <v>10</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>40787</v>
+      </c>
+      <c r="C12" t="n">
+        <v>99</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>39417</v>
+      </c>
+      <c r="E12" t="n">
+        <v>54</v>
+      </c>
+      <c r="F12" t="n">
+        <v>138.8699951171875</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="H12" t="n">
+        <v>88</v>
+      </c>
+      <c r="I12" t="n">
+        <v>140</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0.03323543772977941</v>
+      </c>
+      <c r="L12" t="n">
+        <v>137.0752814797794</v>
+      </c>
+      <c r="M12" t="n">
+        <v>10</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>41821</v>
+      </c>
+      <c r="C13" t="n">
+        <v>133</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="E13" t="n">
+        <v>102</v>
+      </c>
+      <c r="F13" t="n">
+        <v>46.23500061035156</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="H13" t="n">
+        <v>122</v>
+      </c>
+      <c r="I13" t="n">
+        <v>46.20000076293945</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.001749992370605469</v>
+      </c>
+      <c r="L13" t="n">
+        <v>46.41349983215332</v>
+      </c>
+      <c r="M13" t="n">
+        <v>10</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TATAMOTORS.NS</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>38353</v>
+      </c>
+      <c r="C14" t="n">
+        <v>167</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>35247</v>
+      </c>
+      <c r="E14" t="n">
+        <v>65</v>
+      </c>
+      <c r="F14" t="n">
+        <v>109.2294387817383</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>38018</v>
+      </c>
+      <c r="H14" t="n">
+        <v>156</v>
+      </c>
+      <c r="I14" t="n">
+        <v>109.2869262695312</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0006317306350875686</v>
+      </c>
+      <c r="L14" t="n">
+        <v>109.1883762904576</v>
+      </c>
+      <c r="M14" t="n">
+        <v>10</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="C15" t="n">
+        <v>275</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>42736</v>
+      </c>
+      <c r="E15" t="n">
+        <v>252</v>
+      </c>
+      <c r="F15" t="n">
+        <v>211.8000030517578</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="H15" t="n">
+        <v>264</v>
+      </c>
+      <c r="I15" t="n">
+        <v>212.8500061035156</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0.08750025431315105</v>
+      </c>
+      <c r="L15" t="n">
+        <v>189.7499389648438</v>
+      </c>
+      <c r="M15" t="n">
+        <v>10</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BEL.NS</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="C16" t="n">
+        <v>219</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="E16" t="n">
+        <v>207</v>
+      </c>
+      <c r="F16" t="n">
+        <v>40.70000076293945</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="H16" t="n">
+        <v>208</v>
+      </c>
+      <c r="I16" t="n">
+        <v>40.70000076293945</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>40.70000076293945</v>
+      </c>
+      <c r="M16" t="n">
+        <v>10</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>43344</v>
+      </c>
+      <c r="C17" t="n">
+        <v>194</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>41974</v>
+      </c>
+      <c r="E17" t="n">
+        <v>149</v>
+      </c>
+      <c r="F17" t="n">
+        <v>230.9499969482422</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H17" t="n">
+        <v>183</v>
+      </c>
+      <c r="I17" t="n">
+        <v>231.4499969482422</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0.01470588235294118</v>
+      </c>
+      <c r="L17" t="n">
+        <v>228.758820477654</v>
+      </c>
+      <c r="M17" t="n">
+        <v>10</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="C18" t="n">
+        <v>230</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="E18" t="n">
+        <v>214</v>
+      </c>
+      <c r="F18" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="H18" t="n">
+        <v>219</v>
+      </c>
+      <c r="I18" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="M18" t="n">
+        <v>10</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="C19" t="n">
+        <v>303</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="E19" t="n">
+        <v>241</v>
+      </c>
+      <c r="F19" t="n">
+        <v>148.25</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="H19" t="n">
+        <v>292</v>
+      </c>
+      <c r="I19" t="n">
+        <v>149.4499969482422</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0235293519263174</v>
+      </c>
+      <c r="L19" t="n">
+        <v>142.5794261857575</v>
+      </c>
+      <c r="M19" t="n">
+        <v>10</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PIIND.NS</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="C20" t="n">
+        <v>98</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>42948</v>
+      </c>
+      <c r="E20" t="n">
+        <v>73</v>
+      </c>
+      <c r="F20" t="n">
+        <v>675</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="H20" t="n">
+        <v>87</v>
+      </c>
+      <c r="I20" t="n">
+        <v>675.5999755859375</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0.04285539899553571</v>
+      </c>
+      <c r="L20" t="n">
+        <v>671.8715558733259</v>
+      </c>
+      <c r="M20" t="n">
+        <v>10</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DABUR.NS</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="C21" t="n">
+        <v>179</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="E21" t="n">
+        <v>167</v>
+      </c>
+      <c r="F21" t="n">
+        <v>320</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="H21" t="n">
+        <v>168</v>
+      </c>
+      <c r="I21" t="n">
+        <v>320</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>320</v>
+      </c>
+      <c r="M21" t="n">
+        <v>10</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>40057</v>
+      </c>
+      <c r="C22" t="n">
+        <v>160</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>39630</v>
+      </c>
+      <c r="E22" t="n">
+        <v>146</v>
+      </c>
+      <c r="F22" t="n">
+        <v>25</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="H22" t="n">
+        <v>149</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>25</v>
+      </c>
+      <c r="M22" t="n">
+        <v>10</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MOTHERSON.NS</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C23" t="n">
+        <v>259</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="E23" t="n">
+        <v>243</v>
+      </c>
+      <c r="F23" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H23" t="n">
+        <v>248</v>
+      </c>
+      <c r="I23" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="M23" t="n">
+        <v>10</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NAUKRI.NS</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="C24" t="n">
+        <v>90</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>41091</v>
+      </c>
+      <c r="E24" t="n">
+        <v>67</v>
+      </c>
+      <c r="F24" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="H24" t="n">
+        <v>79</v>
+      </c>
+      <c r="I24" t="n">
+        <v>276.3500061035156</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0.1541671752929688</v>
+      </c>
+      <c r="L24" t="n">
+        <v>264.1707992553711</v>
+      </c>
+      <c r="M24" t="n">
+        <v>10</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1mo/two_line_alerts_1mo_backup.xlsx
+++ b/excel/1mo/two_line_alerts_1mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,6 +616,1077 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>37104</v>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>36708</v>
+      </c>
+      <c r="E4" t="n">
+        <v>54</v>
+      </c>
+      <c r="F4" t="n">
+        <v>52</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>36770</v>
+      </c>
+      <c r="H4" t="n">
+        <v>56</v>
+      </c>
+      <c r="I4" t="n">
+        <v>52</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>52</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BRITANNIA.NS</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>37469</v>
+      </c>
+      <c r="C5" t="n">
+        <v>78</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>36586</v>
+      </c>
+      <c r="E5" t="n">
+        <v>49</v>
+      </c>
+      <c r="F5" t="n">
+        <v>46.20000076293945</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>37135</v>
+      </c>
+      <c r="H5" t="n">
+        <v>67</v>
+      </c>
+      <c r="I5" t="n">
+        <v>46</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.01111115349663628</v>
+      </c>
+      <c r="L5" t="n">
+        <v>46.74444728427463</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DRREDDY.NS</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="C6" t="n">
+        <v>123</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>37561</v>
+      </c>
+      <c r="E6" t="n">
+        <v>82</v>
+      </c>
+      <c r="F6" t="n">
+        <v>299.5249938964844</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>38473</v>
+      </c>
+      <c r="H6" t="n">
+        <v>112</v>
+      </c>
+      <c r="I6" t="n">
+        <v>302.5</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0991668701171875</v>
+      </c>
+      <c r="L6" t="n">
+        <v>291.393310546875</v>
+      </c>
+      <c r="M6" t="n">
+        <v>10</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BRITANNIA.NS</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>39295</v>
+      </c>
+      <c r="C7" t="n">
+        <v>138</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>38899</v>
+      </c>
+      <c r="E7" t="n">
+        <v>125</v>
+      </c>
+      <c r="F7" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>38961</v>
+      </c>
+      <c r="H7" t="n">
+        <v>127</v>
+      </c>
+      <c r="I7" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HINDALCO.NS</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>39539</v>
+      </c>
+      <c r="C8" t="n">
+        <v>147</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>39142</v>
+      </c>
+      <c r="E8" t="n">
+        <v>134</v>
+      </c>
+      <c r="F8" t="n">
+        <v>108.7567291259766</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>39203</v>
+      </c>
+      <c r="H8" t="n">
+        <v>136</v>
+      </c>
+      <c r="I8" t="n">
+        <v>108.7567291259766</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>108.7567291259766</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>M&amp;M.NS</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="C9" t="n">
+        <v>246</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>41852</v>
+      </c>
+      <c r="E9" t="n">
+        <v>223</v>
+      </c>
+      <c r="F9" t="n">
+        <v>716.8499755859375</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="H9" t="n">
+        <v>235</v>
+      </c>
+      <c r="I9" t="n">
+        <v>721.0250244140625</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3479207356770833</v>
+      </c>
+      <c r="L9" t="n">
+        <v>639.2636515299479</v>
+      </c>
+      <c r="M9" t="n">
+        <v>10</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BPCL.NS</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="C10" t="n">
+        <v>296</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="E10" t="n">
+        <v>260</v>
+      </c>
+      <c r="F10" t="n">
+        <v>551.5499877929688</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="H10" t="n">
+        <v>285</v>
+      </c>
+      <c r="I10" t="n">
+        <v>549</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.10199951171875</v>
+      </c>
+      <c r="L10" t="n">
+        <v>578.0698608398437</v>
+      </c>
+      <c r="M10" t="n">
+        <v>10</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>36982</v>
+      </c>
+      <c r="C11" t="n">
+        <v>63</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>36251</v>
+      </c>
+      <c r="E11" t="n">
+        <v>39</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10.62222194671631</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>36647</v>
+      </c>
+      <c r="H11" t="n">
+        <v>52</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10.56666564941406</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.004273561330942007</v>
+      </c>
+      <c r="L11" t="n">
+        <v>10.78889083862305</v>
+      </c>
+      <c r="M11" t="n">
+        <v>10</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>40787</v>
+      </c>
+      <c r="C12" t="n">
+        <v>99</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>39417</v>
+      </c>
+      <c r="E12" t="n">
+        <v>54</v>
+      </c>
+      <c r="F12" t="n">
+        <v>138.8699951171875</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="H12" t="n">
+        <v>88</v>
+      </c>
+      <c r="I12" t="n">
+        <v>140</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0.03323543772977941</v>
+      </c>
+      <c r="L12" t="n">
+        <v>137.0752814797794</v>
+      </c>
+      <c r="M12" t="n">
+        <v>10</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>41821</v>
+      </c>
+      <c r="C13" t="n">
+        <v>133</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="E13" t="n">
+        <v>102</v>
+      </c>
+      <c r="F13" t="n">
+        <v>46.23500061035156</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="H13" t="n">
+        <v>122</v>
+      </c>
+      <c r="I13" t="n">
+        <v>46.20000076293945</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.001749992370605469</v>
+      </c>
+      <c r="L13" t="n">
+        <v>46.41349983215332</v>
+      </c>
+      <c r="M13" t="n">
+        <v>10</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TATAMOTORS.NS</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>38353</v>
+      </c>
+      <c r="C14" t="n">
+        <v>167</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>35247</v>
+      </c>
+      <c r="E14" t="n">
+        <v>65</v>
+      </c>
+      <c r="F14" t="n">
+        <v>109.2294387817383</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>38018</v>
+      </c>
+      <c r="H14" t="n">
+        <v>156</v>
+      </c>
+      <c r="I14" t="n">
+        <v>109.2869262695312</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0006317306350875686</v>
+      </c>
+      <c r="L14" t="n">
+        <v>109.1883762904576</v>
+      </c>
+      <c r="M14" t="n">
+        <v>10</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="C15" t="n">
+        <v>275</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>42736</v>
+      </c>
+      <c r="E15" t="n">
+        <v>252</v>
+      </c>
+      <c r="F15" t="n">
+        <v>211.8000030517578</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="H15" t="n">
+        <v>264</v>
+      </c>
+      <c r="I15" t="n">
+        <v>212.8500061035156</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0.08750025431315105</v>
+      </c>
+      <c r="L15" t="n">
+        <v>189.7499389648438</v>
+      </c>
+      <c r="M15" t="n">
+        <v>10</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>43344</v>
+      </c>
+      <c r="C16" t="n">
+        <v>194</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>41974</v>
+      </c>
+      <c r="E16" t="n">
+        <v>149</v>
+      </c>
+      <c r="F16" t="n">
+        <v>230.9499969482422</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H16" t="n">
+        <v>183</v>
+      </c>
+      <c r="I16" t="n">
+        <v>231.4499969482422</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0.01470588235294118</v>
+      </c>
+      <c r="L16" t="n">
+        <v>228.758820477654</v>
+      </c>
+      <c r="M16" t="n">
+        <v>10</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="C17" t="n">
+        <v>230</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="E17" t="n">
+        <v>214</v>
+      </c>
+      <c r="F17" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="H17" t="n">
+        <v>219</v>
+      </c>
+      <c r="I17" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="M17" t="n">
+        <v>10</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BEL.NS</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="C18" t="n">
+        <v>219</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="E18" t="n">
+        <v>207</v>
+      </c>
+      <c r="F18" t="n">
+        <v>40.70000076293945</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="H18" t="n">
+        <v>208</v>
+      </c>
+      <c r="I18" t="n">
+        <v>40.70000076293945</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>40.70000076293945</v>
+      </c>
+      <c r="M18" t="n">
+        <v>10</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="C19" t="n">
+        <v>303</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="E19" t="n">
+        <v>241</v>
+      </c>
+      <c r="F19" t="n">
+        <v>148.25</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="H19" t="n">
+        <v>292</v>
+      </c>
+      <c r="I19" t="n">
+        <v>149.4499969482422</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0235293519263174</v>
+      </c>
+      <c r="L19" t="n">
+        <v>142.5794261857575</v>
+      </c>
+      <c r="M19" t="n">
+        <v>10</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PIIND.NS</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="C20" t="n">
+        <v>98</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>42948</v>
+      </c>
+      <c r="E20" t="n">
+        <v>73</v>
+      </c>
+      <c r="F20" t="n">
+        <v>675</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="H20" t="n">
+        <v>87</v>
+      </c>
+      <c r="I20" t="n">
+        <v>675.5999755859375</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0.04285539899553571</v>
+      </c>
+      <c r="L20" t="n">
+        <v>671.8715558733259</v>
+      </c>
+      <c r="M20" t="n">
+        <v>10</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>40057</v>
+      </c>
+      <c r="C21" t="n">
+        <v>160</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>39630</v>
+      </c>
+      <c r="E21" t="n">
+        <v>146</v>
+      </c>
+      <c r="F21" t="n">
+        <v>25</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="H21" t="n">
+        <v>149</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>25</v>
+      </c>
+      <c r="M21" t="n">
+        <v>10</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DABUR.NS</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="C22" t="n">
+        <v>179</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="E22" t="n">
+        <v>167</v>
+      </c>
+      <c r="F22" t="n">
+        <v>320</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="H22" t="n">
+        <v>168</v>
+      </c>
+      <c r="I22" t="n">
+        <v>320</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>320</v>
+      </c>
+      <c r="M22" t="n">
+        <v>10</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MOTHERSON.NS</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C23" t="n">
+        <v>259</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="E23" t="n">
+        <v>243</v>
+      </c>
+      <c r="F23" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H23" t="n">
+        <v>248</v>
+      </c>
+      <c r="I23" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="M23" t="n">
+        <v>10</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NAUKRI.NS</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="C24" t="n">
+        <v>90</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>41091</v>
+      </c>
+      <c r="E24" t="n">
+        <v>67</v>
+      </c>
+      <c r="F24" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="H24" t="n">
+        <v>79</v>
+      </c>
+      <c r="I24" t="n">
+        <v>276.3500061035156</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0.1541671752929688</v>
+      </c>
+      <c r="L24" t="n">
+        <v>264.1707992553711</v>
+      </c>
+      <c r="M24" t="n">
+        <v>10</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1mo/two_line_alerts_1mo_backup.xlsx
+++ b/excel/1mo/two_line_alerts_1mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1687,6 +1687,720 @@
         <v>2</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>39356</v>
+      </c>
+      <c r="C25" t="n">
+        <v>63</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>38991</v>
+      </c>
+      <c r="E25" t="n">
+        <v>51</v>
+      </c>
+      <c r="F25" t="n">
+        <v>460</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>39022</v>
+      </c>
+      <c r="H25" t="n">
+        <v>52</v>
+      </c>
+      <c r="I25" t="n">
+        <v>460</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>460</v>
+      </c>
+      <c r="M25" t="n">
+        <v>10</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>40118</v>
+      </c>
+      <c r="C26" t="n">
+        <v>88</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="E26" t="n">
+        <v>75</v>
+      </c>
+      <c r="F26" t="n">
+        <v>68.25</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>39783</v>
+      </c>
+      <c r="H26" t="n">
+        <v>77</v>
+      </c>
+      <c r="I26" t="n">
+        <v>68.25</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>68.25</v>
+      </c>
+      <c r="M26" t="n">
+        <v>10</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>41395</v>
+      </c>
+      <c r="C27" t="n">
+        <v>130</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>41030</v>
+      </c>
+      <c r="E27" t="n">
+        <v>118</v>
+      </c>
+      <c r="F27" t="n">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>41061</v>
+      </c>
+      <c r="H27" t="n">
+        <v>119</v>
+      </c>
+      <c r="I27" t="n">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="M27" t="n">
+        <v>10</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C28" t="n">
+        <v>150</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>41030</v>
+      </c>
+      <c r="E28" t="n">
+        <v>118</v>
+      </c>
+      <c r="F28" t="n">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>41671</v>
+      </c>
+      <c r="H28" t="n">
+        <v>139</v>
+      </c>
+      <c r="I28" t="n">
+        <v>11.60000038146973</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.002380916050502232</v>
+      </c>
+      <c r="L28" t="n">
+        <v>11.93094771248954</v>
+      </c>
+      <c r="M28" t="n">
+        <v>10</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C29" t="n">
+        <v>150</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>41061</v>
+      </c>
+      <c r="E29" t="n">
+        <v>119</v>
+      </c>
+      <c r="F29" t="n">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>41671</v>
+      </c>
+      <c r="H29" t="n">
+        <v>139</v>
+      </c>
+      <c r="I29" t="n">
+        <v>11.60000038146973</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.002499961853027344</v>
+      </c>
+      <c r="L29" t="n">
+        <v>11.94749507904053</v>
+      </c>
+      <c r="M29" t="n">
+        <v>10</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>41852</v>
+      </c>
+      <c r="C30" t="n">
+        <v>50</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>41334</v>
+      </c>
+      <c r="E30" t="n">
+        <v>33</v>
+      </c>
+      <c r="F30" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>41518</v>
+      </c>
+      <c r="H30" t="n">
+        <v>39</v>
+      </c>
+      <c r="I30" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="M30" t="n">
+        <v>10</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>NLCINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>40057</v>
+      </c>
+      <c r="C31" t="n">
+        <v>108</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>38869</v>
+      </c>
+      <c r="E31" t="n">
+        <v>69</v>
+      </c>
+      <c r="F31" t="n">
+        <v>44</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="H31" t="n">
+        <v>97</v>
+      </c>
+      <c r="I31" t="n">
+        <v>44.40000152587891</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0.01428576878138951</v>
+      </c>
+      <c r="L31" t="n">
+        <v>43.01428195408413</v>
+      </c>
+      <c r="M31" t="n">
+        <v>10</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>RIR.BO</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>41091</v>
+      </c>
+      <c r="C32" t="n">
+        <v>69</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>40664</v>
+      </c>
+      <c r="E32" t="n">
+        <v>55</v>
+      </c>
+      <c r="F32" t="n">
+        <v>13</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>40756</v>
+      </c>
+      <c r="H32" t="n">
+        <v>58</v>
+      </c>
+      <c r="I32" t="n">
+        <v>13</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>13</v>
+      </c>
+      <c r="M32" t="n">
+        <v>10</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>RIR.BO</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>41122</v>
+      </c>
+      <c r="C33" t="n">
+        <v>70</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>40664</v>
+      </c>
+      <c r="E33" t="n">
+        <v>55</v>
+      </c>
+      <c r="F33" t="n">
+        <v>13</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>40787</v>
+      </c>
+      <c r="H33" t="n">
+        <v>59</v>
+      </c>
+      <c r="I33" t="n">
+        <v>13</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>13</v>
+      </c>
+      <c r="M33" t="n">
+        <v>10</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>42125</v>
+      </c>
+      <c r="C34" t="n">
+        <v>68</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>41306</v>
+      </c>
+      <c r="E34" t="n">
+        <v>41</v>
+      </c>
+      <c r="F34" t="n">
+        <v>29.39999961853027</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="H34" t="n">
+        <v>57</v>
+      </c>
+      <c r="I34" t="n">
+        <v>29.60000038146973</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0.01250004768371582</v>
+      </c>
+      <c r="L34" t="n">
+        <v>28.88749766349792</v>
+      </c>
+      <c r="M34" t="n">
+        <v>10</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MOSCHIP.BO</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>40210</v>
+      </c>
+      <c r="C35" t="n">
+        <v>97</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>38869</v>
+      </c>
+      <c r="E35" t="n">
+        <v>53</v>
+      </c>
+      <c r="F35" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>38899</v>
+      </c>
+      <c r="H35" t="n">
+        <v>54</v>
+      </c>
+      <c r="I35" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="M35" t="n">
+        <v>10</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>WELENT.NS</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>41913</v>
+      </c>
+      <c r="C36" t="n">
+        <v>118</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>41548</v>
+      </c>
+      <c r="E36" t="n">
+        <v>106</v>
+      </c>
+      <c r="F36" t="n">
+        <v>7.900000095367432</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>41579</v>
+      </c>
+      <c r="H36" t="n">
+        <v>107</v>
+      </c>
+      <c r="I36" t="n">
+        <v>7.900000095367432</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>7.900000095367432</v>
+      </c>
+      <c r="M36" t="n">
+        <v>10</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="C37" t="n">
+        <v>111</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93</v>
+      </c>
+      <c r="F37" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="H37" t="n">
+        <v>100</v>
+      </c>
+      <c r="I37" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="M37" t="n">
+        <v>10</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="C38" t="n">
+        <v>121</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="E38" t="n">
+        <v>94</v>
+      </c>
+      <c r="F38" t="n">
+        <v>27.20000076293945</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="H38" t="n">
+        <v>110</v>
+      </c>
+      <c r="I38" t="n">
+        <v>27.26499938964844</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0.004062414169311523</v>
+      </c>
+      <c r="L38" t="n">
+        <v>26.81813383102417</v>
+      </c>
+      <c r="M38" t="n">
+        <v>10</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1mo/two_line_alerts_1mo_backup.xlsx
+++ b/excel/1mo/two_line_alerts_1mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,6 +718,1893 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>37104</v>
+      </c>
+      <c r="C6" t="n">
+        <v>67</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>36708</v>
+      </c>
+      <c r="E6" t="n">
+        <v>54</v>
+      </c>
+      <c r="F6" t="n">
+        <v>52</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>36770</v>
+      </c>
+      <c r="H6" t="n">
+        <v>56</v>
+      </c>
+      <c r="I6" t="n">
+        <v>52</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>52</v>
+      </c>
+      <c r="M6" t="n">
+        <v>10</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BRITANNIA.NS</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>37469</v>
+      </c>
+      <c r="C7" t="n">
+        <v>78</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>36586</v>
+      </c>
+      <c r="E7" t="n">
+        <v>49</v>
+      </c>
+      <c r="F7" t="n">
+        <v>46.20000076293945</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>37135</v>
+      </c>
+      <c r="H7" t="n">
+        <v>67</v>
+      </c>
+      <c r="I7" t="n">
+        <v>46</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.01111115349663628</v>
+      </c>
+      <c r="L7" t="n">
+        <v>46.74444728427463</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>^NSEBANK</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>41730</v>
+      </c>
+      <c r="C8" t="n">
+        <v>78</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>40483</v>
+      </c>
+      <c r="E8" t="n">
+        <v>37</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13303.599609375</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>41395</v>
+      </c>
+      <c r="H8" t="n">
+        <v>67</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13414.2998046875</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>3.690006510416667</v>
+      </c>
+      <c r="L8" t="n">
+        <v>13167.06936848958</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ASIANPAINT.NS</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>40210</v>
+      </c>
+      <c r="C9" t="n">
+        <v>91</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="E9" t="n">
+        <v>78</v>
+      </c>
+      <c r="F9" t="n">
+        <v>70.00499725341797</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>39873</v>
+      </c>
+      <c r="H9" t="n">
+        <v>80</v>
+      </c>
+      <c r="I9" t="n">
+        <v>70.00499725341797</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>70.00499725341797</v>
+      </c>
+      <c r="M9" t="n">
+        <v>10</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BRITANNIA.NS</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>39295</v>
+      </c>
+      <c r="C10" t="n">
+        <v>138</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>38899</v>
+      </c>
+      <c r="E10" t="n">
+        <v>125</v>
+      </c>
+      <c r="F10" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>38961</v>
+      </c>
+      <c r="H10" t="n">
+        <v>127</v>
+      </c>
+      <c r="I10" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>10</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DRREDDY.NS</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="C11" t="n">
+        <v>123</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>37561</v>
+      </c>
+      <c r="E11" t="n">
+        <v>82</v>
+      </c>
+      <c r="F11" t="n">
+        <v>299.5249938964844</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>38473</v>
+      </c>
+      <c r="H11" t="n">
+        <v>112</v>
+      </c>
+      <c r="I11" t="n">
+        <v>302.5</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0991668701171875</v>
+      </c>
+      <c r="L11" t="n">
+        <v>291.393310546875</v>
+      </c>
+      <c r="M11" t="n">
+        <v>10</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HINDALCO.NS</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>39539</v>
+      </c>
+      <c r="C12" t="n">
+        <v>147</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>39142</v>
+      </c>
+      <c r="E12" t="n">
+        <v>134</v>
+      </c>
+      <c r="F12" t="n">
+        <v>108.7567291259766</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>39203</v>
+      </c>
+      <c r="H12" t="n">
+        <v>136</v>
+      </c>
+      <c r="I12" t="n">
+        <v>108.7567291259766</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>108.7567291259766</v>
+      </c>
+      <c r="M12" t="n">
+        <v>10</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>M&amp;M.NS</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="C13" t="n">
+        <v>246</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>41852</v>
+      </c>
+      <c r="E13" t="n">
+        <v>223</v>
+      </c>
+      <c r="F13" t="n">
+        <v>716.8499755859375</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="H13" t="n">
+        <v>235</v>
+      </c>
+      <c r="I13" t="n">
+        <v>721.0250244140625</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0.3479207356770833</v>
+      </c>
+      <c r="L13" t="n">
+        <v>639.2636515299479</v>
+      </c>
+      <c r="M13" t="n">
+        <v>10</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BPCL.NS</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="C14" t="n">
+        <v>296</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="E14" t="n">
+        <v>260</v>
+      </c>
+      <c r="F14" t="n">
+        <v>551.5499877929688</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="H14" t="n">
+        <v>285</v>
+      </c>
+      <c r="I14" t="n">
+        <v>549</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.10199951171875</v>
+      </c>
+      <c r="L14" t="n">
+        <v>578.0698608398437</v>
+      </c>
+      <c r="M14" t="n">
+        <v>10</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>36982</v>
+      </c>
+      <c r="C15" t="n">
+        <v>63</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>36251</v>
+      </c>
+      <c r="E15" t="n">
+        <v>39</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10.62222194671631</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>36647</v>
+      </c>
+      <c r="H15" t="n">
+        <v>52</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10.56666564941406</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.004273561330942007</v>
+      </c>
+      <c r="L15" t="n">
+        <v>10.78889083862305</v>
+      </c>
+      <c r="M15" t="n">
+        <v>10</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>40787</v>
+      </c>
+      <c r="C16" t="n">
+        <v>99</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>39417</v>
+      </c>
+      <c r="E16" t="n">
+        <v>54</v>
+      </c>
+      <c r="F16" t="n">
+        <v>138.8699951171875</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="H16" t="n">
+        <v>88</v>
+      </c>
+      <c r="I16" t="n">
+        <v>140</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0.03323543772977941</v>
+      </c>
+      <c r="L16" t="n">
+        <v>137.0752814797794</v>
+      </c>
+      <c r="M16" t="n">
+        <v>10</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>41821</v>
+      </c>
+      <c r="C17" t="n">
+        <v>133</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="E17" t="n">
+        <v>102</v>
+      </c>
+      <c r="F17" t="n">
+        <v>46.23500061035156</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="H17" t="n">
+        <v>122</v>
+      </c>
+      <c r="I17" t="n">
+        <v>46.20000076293945</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.001749992370605469</v>
+      </c>
+      <c r="L17" t="n">
+        <v>46.41349983215332</v>
+      </c>
+      <c r="M17" t="n">
+        <v>10</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TATAMOTORS.NS</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>38353</v>
+      </c>
+      <c r="C18" t="n">
+        <v>167</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>35247</v>
+      </c>
+      <c r="E18" t="n">
+        <v>65</v>
+      </c>
+      <c r="F18" t="n">
+        <v>109.2294387817383</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>38018</v>
+      </c>
+      <c r="H18" t="n">
+        <v>156</v>
+      </c>
+      <c r="I18" t="n">
+        <v>109.2869262695312</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0006317306350875686</v>
+      </c>
+      <c r="L18" t="n">
+        <v>109.1883762904576</v>
+      </c>
+      <c r="M18" t="n">
+        <v>10</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="C19" t="n">
+        <v>275</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>42736</v>
+      </c>
+      <c r="E19" t="n">
+        <v>252</v>
+      </c>
+      <c r="F19" t="n">
+        <v>211.8000030517578</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="H19" t="n">
+        <v>264</v>
+      </c>
+      <c r="I19" t="n">
+        <v>212.8500061035156</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0.08750025431315105</v>
+      </c>
+      <c r="L19" t="n">
+        <v>189.7499389648438</v>
+      </c>
+      <c r="M19" t="n">
+        <v>10</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BEL.NS</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="C20" t="n">
+        <v>219</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="E20" t="n">
+        <v>207</v>
+      </c>
+      <c r="F20" t="n">
+        <v>40.70000076293945</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="H20" t="n">
+        <v>208</v>
+      </c>
+      <c r="I20" t="n">
+        <v>40.70000076293945</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>40.70000076293945</v>
+      </c>
+      <c r="M20" t="n">
+        <v>10</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>43344</v>
+      </c>
+      <c r="C21" t="n">
+        <v>194</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>41974</v>
+      </c>
+      <c r="E21" t="n">
+        <v>149</v>
+      </c>
+      <c r="F21" t="n">
+        <v>230.9499969482422</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="H21" t="n">
+        <v>183</v>
+      </c>
+      <c r="I21" t="n">
+        <v>231.4499969482422</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0.01470588235294118</v>
+      </c>
+      <c r="L21" t="n">
+        <v>228.758820477654</v>
+      </c>
+      <c r="M21" t="n">
+        <v>10</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PNB.NS</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="C22" t="n">
+        <v>230</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="E22" t="n">
+        <v>214</v>
+      </c>
+      <c r="F22" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="H22" t="n">
+        <v>219</v>
+      </c>
+      <c r="I22" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="M22" t="n">
+        <v>10</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="C23" t="n">
+        <v>303</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="E23" t="n">
+        <v>241</v>
+      </c>
+      <c r="F23" t="n">
+        <v>148.25</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="H23" t="n">
+        <v>292</v>
+      </c>
+      <c r="I23" t="n">
+        <v>149.4499969482422</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0235293519263174</v>
+      </c>
+      <c r="L23" t="n">
+        <v>142.5794261857575</v>
+      </c>
+      <c r="M23" t="n">
+        <v>10</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PIIND.NS</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="C24" t="n">
+        <v>98</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>42948</v>
+      </c>
+      <c r="E24" t="n">
+        <v>73</v>
+      </c>
+      <c r="F24" t="n">
+        <v>675</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="H24" t="n">
+        <v>87</v>
+      </c>
+      <c r="I24" t="n">
+        <v>675.5999755859375</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0.04285539899553571</v>
+      </c>
+      <c r="L24" t="n">
+        <v>671.8715558733259</v>
+      </c>
+      <c r="M24" t="n">
+        <v>10</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>40057</v>
+      </c>
+      <c r="C25" t="n">
+        <v>160</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>39630</v>
+      </c>
+      <c r="E25" t="n">
+        <v>146</v>
+      </c>
+      <c r="F25" t="n">
+        <v>25</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="H25" t="n">
+        <v>149</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>25</v>
+      </c>
+      <c r="M25" t="n">
+        <v>10</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>DABUR.NS</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="C26" t="n">
+        <v>179</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="E26" t="n">
+        <v>167</v>
+      </c>
+      <c r="F26" t="n">
+        <v>320</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="H26" t="n">
+        <v>168</v>
+      </c>
+      <c r="I26" t="n">
+        <v>320</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>320</v>
+      </c>
+      <c r="M26" t="n">
+        <v>10</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MOTHERSON.NS</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C27" t="n">
+        <v>259</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="E27" t="n">
+        <v>243</v>
+      </c>
+      <c r="F27" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H27" t="n">
+        <v>248</v>
+      </c>
+      <c r="I27" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="M27" t="n">
+        <v>10</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>39356</v>
+      </c>
+      <c r="C28" t="n">
+        <v>63</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>38991</v>
+      </c>
+      <c r="E28" t="n">
+        <v>51</v>
+      </c>
+      <c r="F28" t="n">
+        <v>460</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>39022</v>
+      </c>
+      <c r="H28" t="n">
+        <v>52</v>
+      </c>
+      <c r="I28" t="n">
+        <v>460</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>460</v>
+      </c>
+      <c r="M28" t="n">
+        <v>10</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NAUKRI.NS</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="C29" t="n">
+        <v>90</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>41091</v>
+      </c>
+      <c r="E29" t="n">
+        <v>67</v>
+      </c>
+      <c r="F29" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="H29" t="n">
+        <v>79</v>
+      </c>
+      <c r="I29" t="n">
+        <v>276.3500061035156</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0.1541671752929688</v>
+      </c>
+      <c r="L29" t="n">
+        <v>264.1707992553711</v>
+      </c>
+      <c r="M29" t="n">
+        <v>10</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>40118</v>
+      </c>
+      <c r="C30" t="n">
+        <v>88</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="E30" t="n">
+        <v>75</v>
+      </c>
+      <c r="F30" t="n">
+        <v>68.25</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>39783</v>
+      </c>
+      <c r="H30" t="n">
+        <v>77</v>
+      </c>
+      <c r="I30" t="n">
+        <v>68.25</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>68.25</v>
+      </c>
+      <c r="M30" t="n">
+        <v>10</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="C31" t="n">
+        <v>121</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="E31" t="n">
+        <v>94</v>
+      </c>
+      <c r="F31" t="n">
+        <v>27.20000076293945</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="H31" t="n">
+        <v>110</v>
+      </c>
+      <c r="I31" t="n">
+        <v>27.26499938964844</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0.004062414169311523</v>
+      </c>
+      <c r="L31" t="n">
+        <v>26.81813383102417</v>
+      </c>
+      <c r="M31" t="n">
+        <v>10</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>41395</v>
+      </c>
+      <c r="C32" t="n">
+        <v>130</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>41030</v>
+      </c>
+      <c r="E32" t="n">
+        <v>118</v>
+      </c>
+      <c r="F32" t="n">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>41061</v>
+      </c>
+      <c r="H32" t="n">
+        <v>119</v>
+      </c>
+      <c r="I32" t="n">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="M32" t="n">
+        <v>10</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C33" t="n">
+        <v>150</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>41030</v>
+      </c>
+      <c r="E33" t="n">
+        <v>118</v>
+      </c>
+      <c r="F33" t="n">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>41671</v>
+      </c>
+      <c r="H33" t="n">
+        <v>139</v>
+      </c>
+      <c r="I33" t="n">
+        <v>11.60000038146973</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>-0.002380916050502232</v>
+      </c>
+      <c r="L33" t="n">
+        <v>11.93094771248954</v>
+      </c>
+      <c r="M33" t="n">
+        <v>10</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="C34" t="n">
+        <v>150</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>41061</v>
+      </c>
+      <c r="E34" t="n">
+        <v>119</v>
+      </c>
+      <c r="F34" t="n">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>41671</v>
+      </c>
+      <c r="H34" t="n">
+        <v>139</v>
+      </c>
+      <c r="I34" t="n">
+        <v>11.60000038146973</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.002499961853027344</v>
+      </c>
+      <c r="L34" t="n">
+        <v>11.94749507904053</v>
+      </c>
+      <c r="M34" t="n">
+        <v>10</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>41852</v>
+      </c>
+      <c r="C35" t="n">
+        <v>50</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>41334</v>
+      </c>
+      <c r="E35" t="n">
+        <v>33</v>
+      </c>
+      <c r="F35" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>41518</v>
+      </c>
+      <c r="H35" t="n">
+        <v>39</v>
+      </c>
+      <c r="I35" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="M35" t="n">
+        <v>10</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>RIR.BO</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>41091</v>
+      </c>
+      <c r="C36" t="n">
+        <v>69</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>40664</v>
+      </c>
+      <c r="E36" t="n">
+        <v>55</v>
+      </c>
+      <c r="F36" t="n">
+        <v>13</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>40756</v>
+      </c>
+      <c r="H36" t="n">
+        <v>58</v>
+      </c>
+      <c r="I36" t="n">
+        <v>13</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>13</v>
+      </c>
+      <c r="M36" t="n">
+        <v>10</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>RIR.BO</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>41122</v>
+      </c>
+      <c r="C37" t="n">
+        <v>70</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>40664</v>
+      </c>
+      <c r="E37" t="n">
+        <v>55</v>
+      </c>
+      <c r="F37" t="n">
+        <v>13</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>40787</v>
+      </c>
+      <c r="H37" t="n">
+        <v>59</v>
+      </c>
+      <c r="I37" t="n">
+        <v>13</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>13</v>
+      </c>
+      <c r="M37" t="n">
+        <v>10</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>42125</v>
+      </c>
+      <c r="C38" t="n">
+        <v>68</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>41306</v>
+      </c>
+      <c r="E38" t="n">
+        <v>41</v>
+      </c>
+      <c r="F38" t="n">
+        <v>29.39999961853027</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="H38" t="n">
+        <v>57</v>
+      </c>
+      <c r="I38" t="n">
+        <v>29.60000038146973</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0.01250004768371582</v>
+      </c>
+      <c r="L38" t="n">
+        <v>28.88749766349792</v>
+      </c>
+      <c r="M38" t="n">
+        <v>10</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MOSCHIP.BO</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>39234</v>
+      </c>
+      <c r="C39" t="n">
+        <v>65</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>38869</v>
+      </c>
+      <c r="E39" t="n">
+        <v>53</v>
+      </c>
+      <c r="F39" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>38899</v>
+      </c>
+      <c r="H39" t="n">
+        <v>54</v>
+      </c>
+      <c r="I39" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>20.95000076293945</v>
+      </c>
+      <c r="M39" t="n">
+        <v>10</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NLCINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>40057</v>
+      </c>
+      <c r="C40" t="n">
+        <v>108</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>38869</v>
+      </c>
+      <c r="E40" t="n">
+        <v>69</v>
+      </c>
+      <c r="F40" t="n">
+        <v>44</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="H40" t="n">
+        <v>97</v>
+      </c>
+      <c r="I40" t="n">
+        <v>44.40000152587891</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0.01428576878138951</v>
+      </c>
+      <c r="L40" t="n">
+        <v>43.01428195408413</v>
+      </c>
+      <c r="M40" t="n">
+        <v>10</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="C41" t="n">
+        <v>111</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="E41" t="n">
+        <v>93</v>
+      </c>
+      <c r="F41" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="H41" t="n">
+        <v>100</v>
+      </c>
+      <c r="I41" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="M41" t="n">
+        <v>10</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>WELENT.NS</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>41913</v>
+      </c>
+      <c r="C42" t="n">
+        <v>118</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>41548</v>
+      </c>
+      <c r="E42" t="n">
+        <v>106</v>
+      </c>
+      <c r="F42" t="n">
+        <v>7.900000095367432</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>41579</v>
+      </c>
+      <c r="H42" t="n">
+        <v>107</v>
+      </c>
+      <c r="I42" t="n">
+        <v>7.900000095367432</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>7.900000095367432</v>
+      </c>
+      <c r="M42" t="n">
+        <v>10</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1mo/two_line_alerts_1mo_backup.xlsx
+++ b/excel/1mo/two_line_alerts_1mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2605,6 +2605,516 @@
         <v>2</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ZEEL.NS</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>38565</v>
+      </c>
+      <c r="C43" t="n">
+        <v>37</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>38412</v>
+      </c>
+      <c r="E43" t="n">
+        <v>32</v>
+      </c>
+      <c r="F43" t="n">
+        <v>39.09228515625</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>38443</v>
+      </c>
+      <c r="H43" t="n">
+        <v>33</v>
+      </c>
+      <c r="I43" t="n">
+        <v>39.09228515625</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>39.09228515625</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>JUBLFOOD.NS</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>41699</v>
+      </c>
+      <c r="C44" t="n">
+        <v>48</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>41153</v>
+      </c>
+      <c r="E44" t="n">
+        <v>30</v>
+      </c>
+      <c r="F44" t="n">
+        <v>139.7400054931641</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>41579</v>
+      </c>
+      <c r="H44" t="n">
+        <v>44</v>
+      </c>
+      <c r="I44" t="n">
+        <v>139.1900024414062</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.03928593226841518</v>
+      </c>
+      <c r="L44" t="n">
+        <v>140.9185834612165</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ABCAPITAL.NS</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="C45" t="n">
+        <v>56</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="E45" t="n">
+        <v>42</v>
+      </c>
+      <c r="F45" t="n">
+        <v>139.6999969482422</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="H45" t="n">
+        <v>52</v>
+      </c>
+      <c r="I45" t="n">
+        <v>139.1999969482422</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="L45" t="n">
+        <v>141.7999969482422</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>40756</v>
+      </c>
+      <c r="C46" t="n">
+        <v>107</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>40483</v>
+      </c>
+      <c r="E46" t="n">
+        <v>98</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1699</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>40634</v>
+      </c>
+      <c r="H46" t="n">
+        <v>103</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1683.099975585938</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>-3.1800048828125</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2010.640478515625</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ZEEL.NS</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>41030</v>
+      </c>
+      <c r="C47" t="n">
+        <v>118</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>40544</v>
+      </c>
+      <c r="E47" t="n">
+        <v>102</v>
+      </c>
+      <c r="F47" t="n">
+        <v>105.8000030517578</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>40909</v>
+      </c>
+      <c r="H47" t="n">
+        <v>114</v>
+      </c>
+      <c r="I47" t="n">
+        <v>105.5500030517578</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.02083333333333333</v>
+      </c>
+      <c r="L47" t="n">
+        <v>107.9250030517578</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>RAMCOCEM.NS</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>41609</v>
+      </c>
+      <c r="C48" t="n">
+        <v>137</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>41061</v>
+      </c>
+      <c r="E48" t="n">
+        <v>119</v>
+      </c>
+      <c r="F48" t="n">
+        <v>134.1000061035156</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="H48" t="n">
+        <v>133</v>
+      </c>
+      <c r="I48" t="n">
+        <v>135.1499938964844</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>0.07499912806919642</v>
+      </c>
+      <c r="L48" t="n">
+        <v>125.1751098632812</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="C49" t="n">
+        <v>176</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="E49" t="n">
+        <v>165</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4353.7001953125</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>42736</v>
+      </c>
+      <c r="H49" t="n">
+        <v>172</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4360</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0.8999720982142857</v>
+      </c>
+      <c r="L49" t="n">
+        <v>4205.204799107143</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C50" t="n">
+        <v>184</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="E50" t="n">
+        <v>176</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3988</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>42979</v>
+      </c>
+      <c r="H50" t="n">
+        <v>180</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4001</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3416</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CUB.NS</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>43252</v>
+      </c>
+      <c r="C51" t="n">
+        <v>191</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>42979</v>
+      </c>
+      <c r="E51" t="n">
+        <v>182</v>
+      </c>
+      <c r="F51" t="n">
+        <v>133.6363677978516</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>43132</v>
+      </c>
+      <c r="H51" t="n">
+        <v>187</v>
+      </c>
+      <c r="I51" t="n">
+        <v>134.1363677978516</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>115.4363677978516</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>RAMCOCEM.NS</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="C52" t="n">
+        <v>214</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="E52" t="n">
+        <v>189</v>
+      </c>
+      <c r="F52" t="n">
+        <v>879.0999755859375</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="H52" t="n">
+        <v>210</v>
+      </c>
+      <c r="I52" t="n">
+        <v>884.25</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>0.2452392578125</v>
+      </c>
+      <c r="L52" t="n">
+        <v>832.749755859375</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1mo/two_line_alerts_1mo_backup.xlsx
+++ b/excel/1mo/two_line_alerts_1mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O301"/>
+  <dimension ref="A1:O311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15814,6 +15814,516 @@
         <v>2</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>ZEEL.NS</t>
+        </is>
+      </c>
+      <c r="B302" s="2" t="n">
+        <v>38565</v>
+      </c>
+      <c r="C302" t="n">
+        <v>37</v>
+      </c>
+      <c r="D302" s="2" t="n">
+        <v>38412</v>
+      </c>
+      <c r="E302" t="n">
+        <v>32</v>
+      </c>
+      <c r="F302" t="n">
+        <v>39.09228515625</v>
+      </c>
+      <c r="G302" s="2" t="n">
+        <v>38443</v>
+      </c>
+      <c r="H302" t="n">
+        <v>33</v>
+      </c>
+      <c r="I302" t="n">
+        <v>39.09228515625</v>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L302" t="n">
+        <v>39.09228515625</v>
+      </c>
+      <c r="M302" t="n">
+        <v>3</v>
+      </c>
+      <c r="N302" t="n">
+        <v>1</v>
+      </c>
+      <c r="O302" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>JUBLFOOD.NS</t>
+        </is>
+      </c>
+      <c r="B303" s="2" t="n">
+        <v>41699</v>
+      </c>
+      <c r="C303" t="n">
+        <v>48</v>
+      </c>
+      <c r="D303" s="2" t="n">
+        <v>41153</v>
+      </c>
+      <c r="E303" t="n">
+        <v>30</v>
+      </c>
+      <c r="F303" t="n">
+        <v>139.7400054931641</v>
+      </c>
+      <c r="G303" s="2" t="n">
+        <v>41579</v>
+      </c>
+      <c r="H303" t="n">
+        <v>44</v>
+      </c>
+      <c r="I303" t="n">
+        <v>139.1900024414062</v>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K303" t="n">
+        <v>-0.03928593226841518</v>
+      </c>
+      <c r="L303" t="n">
+        <v>140.9185834612165</v>
+      </c>
+      <c r="M303" t="n">
+        <v>3</v>
+      </c>
+      <c r="N303" t="n">
+        <v>1</v>
+      </c>
+      <c r="O303" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>ABCAPITAL.NS</t>
+        </is>
+      </c>
+      <c r="B304" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="C304" t="n">
+        <v>56</v>
+      </c>
+      <c r="D304" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="E304" t="n">
+        <v>42</v>
+      </c>
+      <c r="F304" t="n">
+        <v>139.6999969482422</v>
+      </c>
+      <c r="G304" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="H304" t="n">
+        <v>52</v>
+      </c>
+      <c r="I304" t="n">
+        <v>139.1999969482422</v>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K304" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="L304" t="n">
+        <v>141.7999969482422</v>
+      </c>
+      <c r="M304" t="n">
+        <v>3</v>
+      </c>
+      <c r="N304" t="n">
+        <v>1</v>
+      </c>
+      <c r="O304" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B305" s="2" t="n">
+        <v>40756</v>
+      </c>
+      <c r="C305" t="n">
+        <v>107</v>
+      </c>
+      <c r="D305" s="2" t="n">
+        <v>40483</v>
+      </c>
+      <c r="E305" t="n">
+        <v>98</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1699</v>
+      </c>
+      <c r="G305" s="2" t="n">
+        <v>40634</v>
+      </c>
+      <c r="H305" t="n">
+        <v>103</v>
+      </c>
+      <c r="I305" t="n">
+        <v>1683.099975585938</v>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K305" t="n">
+        <v>-3.1800048828125</v>
+      </c>
+      <c r="L305" t="n">
+        <v>2010.640478515625</v>
+      </c>
+      <c r="M305" t="n">
+        <v>3</v>
+      </c>
+      <c r="N305" t="n">
+        <v>1</v>
+      </c>
+      <c r="O305" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>ZEEL.NS</t>
+        </is>
+      </c>
+      <c r="B306" s="2" t="n">
+        <v>41030</v>
+      </c>
+      <c r="C306" t="n">
+        <v>118</v>
+      </c>
+      <c r="D306" s="2" t="n">
+        <v>40544</v>
+      </c>
+      <c r="E306" t="n">
+        <v>102</v>
+      </c>
+      <c r="F306" t="n">
+        <v>105.8000030517578</v>
+      </c>
+      <c r="G306" s="2" t="n">
+        <v>40909</v>
+      </c>
+      <c r="H306" t="n">
+        <v>114</v>
+      </c>
+      <c r="I306" t="n">
+        <v>105.5500030517578</v>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K306" t="n">
+        <v>-0.02083333333333333</v>
+      </c>
+      <c r="L306" t="n">
+        <v>107.9250030517578</v>
+      </c>
+      <c r="M306" t="n">
+        <v>3</v>
+      </c>
+      <c r="N306" t="n">
+        <v>1</v>
+      </c>
+      <c r="O306" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>RAMCOCEM.NS</t>
+        </is>
+      </c>
+      <c r="B307" s="2" t="n">
+        <v>41609</v>
+      </c>
+      <c r="C307" t="n">
+        <v>137</v>
+      </c>
+      <c r="D307" s="2" t="n">
+        <v>41061</v>
+      </c>
+      <c r="E307" t="n">
+        <v>119</v>
+      </c>
+      <c r="F307" t="n">
+        <v>134.1000061035156</v>
+      </c>
+      <c r="G307" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="H307" t="n">
+        <v>133</v>
+      </c>
+      <c r="I307" t="n">
+        <v>135.1499938964844</v>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K307" t="n">
+        <v>0.07499912806919642</v>
+      </c>
+      <c r="L307" t="n">
+        <v>125.1751098632812</v>
+      </c>
+      <c r="M307" t="n">
+        <v>3</v>
+      </c>
+      <c r="N307" t="n">
+        <v>1</v>
+      </c>
+      <c r="O307" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B308" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="C308" t="n">
+        <v>176</v>
+      </c>
+      <c r="D308" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="E308" t="n">
+        <v>165</v>
+      </c>
+      <c r="F308" t="n">
+        <v>4353.7001953125</v>
+      </c>
+      <c r="G308" s="2" t="n">
+        <v>42736</v>
+      </c>
+      <c r="H308" t="n">
+        <v>172</v>
+      </c>
+      <c r="I308" t="n">
+        <v>4360</v>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K308" t="n">
+        <v>0.8999720982142857</v>
+      </c>
+      <c r="L308" t="n">
+        <v>4205.204799107143</v>
+      </c>
+      <c r="M308" t="n">
+        <v>3</v>
+      </c>
+      <c r="N308" t="n">
+        <v>1</v>
+      </c>
+      <c r="O308" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B309" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C309" t="n">
+        <v>184</v>
+      </c>
+      <c r="D309" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="E309" t="n">
+        <v>176</v>
+      </c>
+      <c r="F309" t="n">
+        <v>3988</v>
+      </c>
+      <c r="G309" s="2" t="n">
+        <v>42979</v>
+      </c>
+      <c r="H309" t="n">
+        <v>180</v>
+      </c>
+      <c r="I309" t="n">
+        <v>4001</v>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K309" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L309" t="n">
+        <v>3416</v>
+      </c>
+      <c r="M309" t="n">
+        <v>3</v>
+      </c>
+      <c r="N309" t="n">
+        <v>1</v>
+      </c>
+      <c r="O309" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>CUB.NS</t>
+        </is>
+      </c>
+      <c r="B310" s="2" t="n">
+        <v>43252</v>
+      </c>
+      <c r="C310" t="n">
+        <v>191</v>
+      </c>
+      <c r="D310" s="2" t="n">
+        <v>42979</v>
+      </c>
+      <c r="E310" t="n">
+        <v>182</v>
+      </c>
+      <c r="F310" t="n">
+        <v>133.6363677978516</v>
+      </c>
+      <c r="G310" s="2" t="n">
+        <v>43132</v>
+      </c>
+      <c r="H310" t="n">
+        <v>187</v>
+      </c>
+      <c r="I310" t="n">
+        <v>134.1363677978516</v>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K310" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L310" t="n">
+        <v>115.4363677978516</v>
+      </c>
+      <c r="M310" t="n">
+        <v>3</v>
+      </c>
+      <c r="N310" t="n">
+        <v>1</v>
+      </c>
+      <c r="O310" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>RAMCOCEM.NS</t>
+        </is>
+      </c>
+      <c r="B311" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="C311" t="n">
+        <v>214</v>
+      </c>
+      <c r="D311" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="E311" t="n">
+        <v>189</v>
+      </c>
+      <c r="F311" t="n">
+        <v>879.0999755859375</v>
+      </c>
+      <c r="G311" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="H311" t="n">
+        <v>210</v>
+      </c>
+      <c r="I311" t="n">
+        <v>884.25</v>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K311" t="n">
+        <v>0.2452392578125</v>
+      </c>
+      <c r="L311" t="n">
+        <v>832.749755859375</v>
+      </c>
+      <c r="M311" t="n">
+        <v>3</v>
+      </c>
+      <c r="N311" t="n">
+        <v>1</v>
+      </c>
+      <c r="O311" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1mo/two_line_alerts_1mo_backup.xlsx
+++ b/excel/1mo/two_line_alerts_1mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O574"/>
+  <dimension ref="A1:O582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29737,6 +29737,414 @@
         <v>2</v>
       </c>
     </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>JUBLFOOD.NS</t>
+        </is>
+      </c>
+      <c r="B575" s="2" t="n">
+        <v>41699</v>
+      </c>
+      <c r="C575" t="n">
+        <v>48</v>
+      </c>
+      <c r="D575" s="2" t="n">
+        <v>41153</v>
+      </c>
+      <c r="E575" t="n">
+        <v>30</v>
+      </c>
+      <c r="F575" t="n">
+        <v>139.7400054931641</v>
+      </c>
+      <c r="G575" s="2" t="n">
+        <v>41579</v>
+      </c>
+      <c r="H575" t="n">
+        <v>44</v>
+      </c>
+      <c r="I575" t="n">
+        <v>139.1900024414062</v>
+      </c>
+      <c r="J575" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K575" t="n">
+        <v>-0.03928593226841518</v>
+      </c>
+      <c r="L575" t="n">
+        <v>140.9185834612165</v>
+      </c>
+      <c r="M575" t="n">
+        <v>3</v>
+      </c>
+      <c r="N575" t="n">
+        <v>1</v>
+      </c>
+      <c r="O575" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>ABCAPITAL.NS</t>
+        </is>
+      </c>
+      <c r="B576" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="C576" t="n">
+        <v>56</v>
+      </c>
+      <c r="D576" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="E576" t="n">
+        <v>42</v>
+      </c>
+      <c r="F576" t="n">
+        <v>139.6999969482422</v>
+      </c>
+      <c r="G576" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="H576" t="n">
+        <v>52</v>
+      </c>
+      <c r="I576" t="n">
+        <v>139.1999969482422</v>
+      </c>
+      <c r="J576" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K576" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="L576" t="n">
+        <v>141.7999969482422</v>
+      </c>
+      <c r="M576" t="n">
+        <v>3</v>
+      </c>
+      <c r="N576" t="n">
+        <v>1</v>
+      </c>
+      <c r="O576" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>ZEEL.NS</t>
+        </is>
+      </c>
+      <c r="B577" s="2" t="n">
+        <v>38565</v>
+      </c>
+      <c r="C577" t="n">
+        <v>37</v>
+      </c>
+      <c r="D577" s="2" t="n">
+        <v>38412</v>
+      </c>
+      <c r="E577" t="n">
+        <v>32</v>
+      </c>
+      <c r="F577" t="n">
+        <v>39.09228515625</v>
+      </c>
+      <c r="G577" s="2" t="n">
+        <v>38443</v>
+      </c>
+      <c r="H577" t="n">
+        <v>33</v>
+      </c>
+      <c r="I577" t="n">
+        <v>39.09228515625</v>
+      </c>
+      <c r="J577" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K577" t="n">
+        <v>0</v>
+      </c>
+      <c r="L577" t="n">
+        <v>39.09228515625</v>
+      </c>
+      <c r="M577" t="n">
+        <v>3</v>
+      </c>
+      <c r="N577" t="n">
+        <v>1</v>
+      </c>
+      <c r="O577" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B578" s="2" t="n">
+        <v>40756</v>
+      </c>
+      <c r="C578" t="n">
+        <v>107</v>
+      </c>
+      <c r="D578" s="2" t="n">
+        <v>40483</v>
+      </c>
+      <c r="E578" t="n">
+        <v>98</v>
+      </c>
+      <c r="F578" t="n">
+        <v>1699</v>
+      </c>
+      <c r="G578" s="2" t="n">
+        <v>40634</v>
+      </c>
+      <c r="H578" t="n">
+        <v>103</v>
+      </c>
+      <c r="I578" t="n">
+        <v>1683.099975585938</v>
+      </c>
+      <c r="J578" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K578" t="n">
+        <v>-3.1800048828125</v>
+      </c>
+      <c r="L578" t="n">
+        <v>2010.640478515625</v>
+      </c>
+      <c r="M578" t="n">
+        <v>3</v>
+      </c>
+      <c r="N578" t="n">
+        <v>1</v>
+      </c>
+      <c r="O578" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>ZEEL.NS</t>
+        </is>
+      </c>
+      <c r="B579" s="2" t="n">
+        <v>41030</v>
+      </c>
+      <c r="C579" t="n">
+        <v>118</v>
+      </c>
+      <c r="D579" s="2" t="n">
+        <v>40544</v>
+      </c>
+      <c r="E579" t="n">
+        <v>102</v>
+      </c>
+      <c r="F579" t="n">
+        <v>105.8000030517578</v>
+      </c>
+      <c r="G579" s="2" t="n">
+        <v>40909</v>
+      </c>
+      <c r="H579" t="n">
+        <v>114</v>
+      </c>
+      <c r="I579" t="n">
+        <v>105.5500030517578</v>
+      </c>
+      <c r="J579" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K579" t="n">
+        <v>-0.02083333333333333</v>
+      </c>
+      <c r="L579" t="n">
+        <v>107.9250030517578</v>
+      </c>
+      <c r="M579" t="n">
+        <v>3</v>
+      </c>
+      <c r="N579" t="n">
+        <v>1</v>
+      </c>
+      <c r="O579" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B580" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="C580" t="n">
+        <v>176</v>
+      </c>
+      <c r="D580" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="E580" t="n">
+        <v>165</v>
+      </c>
+      <c r="F580" t="n">
+        <v>4353.7001953125</v>
+      </c>
+      <c r="G580" s="2" t="n">
+        <v>42736</v>
+      </c>
+      <c r="H580" t="n">
+        <v>172</v>
+      </c>
+      <c r="I580" t="n">
+        <v>4360</v>
+      </c>
+      <c r="J580" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K580" t="n">
+        <v>0.8999720982142857</v>
+      </c>
+      <c r="L580" t="n">
+        <v>4205.204799107143</v>
+      </c>
+      <c r="M580" t="n">
+        <v>3</v>
+      </c>
+      <c r="N580" t="n">
+        <v>1</v>
+      </c>
+      <c r="O580" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>ABBOTINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B581" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C581" t="n">
+        <v>184</v>
+      </c>
+      <c r="D581" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="E581" t="n">
+        <v>176</v>
+      </c>
+      <c r="F581" t="n">
+        <v>3988</v>
+      </c>
+      <c r="G581" s="2" t="n">
+        <v>42979</v>
+      </c>
+      <c r="H581" t="n">
+        <v>180</v>
+      </c>
+      <c r="I581" t="n">
+        <v>4001</v>
+      </c>
+      <c r="J581" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K581" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L581" t="n">
+        <v>3416</v>
+      </c>
+      <c r="M581" t="n">
+        <v>3</v>
+      </c>
+      <c r="N581" t="n">
+        <v>1</v>
+      </c>
+      <c r="O581" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>CUB.NS</t>
+        </is>
+      </c>
+      <c r="B582" s="2" t="n">
+        <v>43252</v>
+      </c>
+      <c r="C582" t="n">
+        <v>191</v>
+      </c>
+      <c r="D582" s="2" t="n">
+        <v>42979</v>
+      </c>
+      <c r="E582" t="n">
+        <v>182</v>
+      </c>
+      <c r="F582" t="n">
+        <v>133.6363677978516</v>
+      </c>
+      <c r="G582" s="2" t="n">
+        <v>43132</v>
+      </c>
+      <c r="H582" t="n">
+        <v>187</v>
+      </c>
+      <c r="I582" t="n">
+        <v>134.1363677978516</v>
+      </c>
+      <c r="J582" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K582" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L582" t="n">
+        <v>115.4363677978516</v>
+      </c>
+      <c r="M582" t="n">
+        <v>3</v>
+      </c>
+      <c r="N582" t="n">
+        <v>1</v>
+      </c>
+      <c r="O582" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1mo/two_line_alerts_1mo_backup.xlsx
+++ b/excel/1mo/two_line_alerts_1mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O582"/>
+  <dimension ref="A1:O598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30145,6 +30145,822 @@
         <v>2</v>
       </c>
     </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>EICHERMOT.NS</t>
+        </is>
+      </c>
+      <c r="B583" s="2" t="n">
+        <v>39052</v>
+      </c>
+      <c r="C583" t="n">
+        <v>131</v>
+      </c>
+      <c r="D583" s="2" t="n">
+        <v>38078</v>
+      </c>
+      <c r="E583" t="n">
+        <v>99</v>
+      </c>
+      <c r="F583" t="n">
+        <v>17.78000068664551</v>
+      </c>
+      <c r="G583" s="2" t="n">
+        <v>38930</v>
+      </c>
+      <c r="H583" t="n">
+        <v>127</v>
+      </c>
+      <c r="I583" t="n">
+        <v>17.63999938964844</v>
+      </c>
+      <c r="J583" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K583" t="n">
+        <v>-0.00500004632132394</v>
+      </c>
+      <c r="L583" t="n">
+        <v>18.27500527245658</v>
+      </c>
+      <c r="M583" t="n">
+        <v>3</v>
+      </c>
+      <c r="N583" t="n">
+        <v>1</v>
+      </c>
+      <c r="O583" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B584" s="2" t="n">
+        <v>40299</v>
+      </c>
+      <c r="C584" t="n">
+        <v>94</v>
+      </c>
+      <c r="D584" s="2" t="n">
+        <v>39661</v>
+      </c>
+      <c r="E584" t="n">
+        <v>73</v>
+      </c>
+      <c r="F584" t="n">
+        <v>123.3333358764648</v>
+      </c>
+      <c r="G584" s="2" t="n">
+        <v>40179</v>
+      </c>
+      <c r="H584" t="n">
+        <v>90</v>
+      </c>
+      <c r="I584" t="n">
+        <v>122.966667175293</v>
+      </c>
+      <c r="J584" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K584" t="n">
+        <v>-0.02156874712775317</v>
+      </c>
+      <c r="L584" t="n">
+        <v>124.9078544167908</v>
+      </c>
+      <c r="M584" t="n">
+        <v>3</v>
+      </c>
+      <c r="N584" t="n">
+        <v>1</v>
+      </c>
+      <c r="O584" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>KOTAKBANK.NS</t>
+        </is>
+      </c>
+      <c r="B585" s="2" t="n">
+        <v>39995</v>
+      </c>
+      <c r="C585" t="n">
+        <v>95</v>
+      </c>
+      <c r="D585" s="2" t="n">
+        <v>38869</v>
+      </c>
+      <c r="E585" t="n">
+        <v>58</v>
+      </c>
+      <c r="F585" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="G585" s="2" t="n">
+        <v>39873</v>
+      </c>
+      <c r="H585" t="n">
+        <v>91</v>
+      </c>
+      <c r="I585" t="n">
+        <v>52</v>
+      </c>
+      <c r="J585" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K585" t="n">
+        <v>-0.01515151515151515</v>
+      </c>
+      <c r="L585" t="n">
+        <v>53.37878787878788</v>
+      </c>
+      <c r="M585" t="n">
+        <v>3</v>
+      </c>
+      <c r="N585" t="n">
+        <v>1</v>
+      </c>
+      <c r="O585" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B586" s="2" t="n">
+        <v>41061</v>
+      </c>
+      <c r="C586" t="n">
+        <v>119</v>
+      </c>
+      <c r="D586" s="2" t="n">
+        <v>40756</v>
+      </c>
+      <c r="E586" t="n">
+        <v>109</v>
+      </c>
+      <c r="F586" t="n">
+        <v>114.466667175293</v>
+      </c>
+      <c r="G586" s="2" t="n">
+        <v>40940</v>
+      </c>
+      <c r="H586" t="n">
+        <v>115</v>
+      </c>
+      <c r="I586" t="n">
+        <v>113.5666656494141</v>
+      </c>
+      <c r="J586" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K586" t="n">
+        <v>-0.1500002543131487</v>
+      </c>
+      <c r="L586" t="n">
+        <v>130.8166948954262</v>
+      </c>
+      <c r="M586" t="n">
+        <v>3</v>
+      </c>
+      <c r="N586" t="n">
+        <v>1</v>
+      </c>
+      <c r="O586" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>ITC.NS</t>
+        </is>
+      </c>
+      <c r="B587" s="2" t="n">
+        <v>42736</v>
+      </c>
+      <c r="C587" t="n">
+        <v>252</v>
+      </c>
+      <c r="D587" s="2" t="n">
+        <v>42036</v>
+      </c>
+      <c r="E587" t="n">
+        <v>229</v>
+      </c>
+      <c r="F587" t="n">
+        <v>268</v>
+      </c>
+      <c r="G587" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="H587" t="n">
+        <v>248</v>
+      </c>
+      <c r="I587" t="n">
+        <v>265.8999938964844</v>
+      </c>
+      <c r="J587" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K587" t="n">
+        <v>-0.1105266370271382</v>
+      </c>
+      <c r="L587" t="n">
+        <v>293.3105998792146</v>
+      </c>
+      <c r="M587" t="n">
+        <v>3</v>
+      </c>
+      <c r="N587" t="n">
+        <v>1</v>
+      </c>
+      <c r="O587" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>NAUKRI.NS</t>
+        </is>
+      </c>
+      <c r="B588" s="2" t="n">
+        <v>41579</v>
+      </c>
+      <c r="C588" t="n">
+        <v>83</v>
+      </c>
+      <c r="D588" s="2" t="n">
+        <v>40909</v>
+      </c>
+      <c r="E588" t="n">
+        <v>61</v>
+      </c>
+      <c r="F588" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="G588" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="H588" t="n">
+        <v>79</v>
+      </c>
+      <c r="I588" t="n">
+        <v>276.3500061035156</v>
+      </c>
+      <c r="J588" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K588" t="n">
+        <v>0.04722256130642361</v>
+      </c>
+      <c r="L588" t="n">
+        <v>272.6194237603082</v>
+      </c>
+      <c r="M588" t="n">
+        <v>3</v>
+      </c>
+      <c r="N588" t="n">
+        <v>1</v>
+      </c>
+      <c r="O588" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>DALMIASUG.NS</t>
+        </is>
+      </c>
+      <c r="B589" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="C589" t="n">
+        <v>143</v>
+      </c>
+      <c r="D589" s="2" t="n">
+        <v>41061</v>
+      </c>
+      <c r="E589" t="n">
+        <v>119</v>
+      </c>
+      <c r="F589" t="n">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="G589" s="2" t="n">
+        <v>41671</v>
+      </c>
+      <c r="H589" t="n">
+        <v>139</v>
+      </c>
+      <c r="I589" t="n">
+        <v>11.60000038146973</v>
+      </c>
+      <c r="J589" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K589" t="n">
+        <v>-0.002499961853026989</v>
+      </c>
+      <c r="L589" t="n">
+        <v>11.94749507904048</v>
+      </c>
+      <c r="M589" t="n">
+        <v>3</v>
+      </c>
+      <c r="N589" t="n">
+        <v>1</v>
+      </c>
+      <c r="O589" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>GIPCL.NS</t>
+        </is>
+      </c>
+      <c r="B590" s="2" t="n">
+        <v>42491</v>
+      </c>
+      <c r="C590" t="n">
+        <v>166</v>
+      </c>
+      <c r="D590" s="2" t="n">
+        <v>41944</v>
+      </c>
+      <c r="E590" t="n">
+        <v>148</v>
+      </c>
+      <c r="F590" t="n">
+        <v>93.90000152587891</v>
+      </c>
+      <c r="G590" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="H590" t="n">
+        <v>162</v>
+      </c>
+      <c r="I590" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J590" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K590" t="n">
+        <v>0.04285703386579241</v>
+      </c>
+      <c r="L590" t="n">
+        <v>87.55716051374164</v>
+      </c>
+      <c r="M590" t="n">
+        <v>3</v>
+      </c>
+      <c r="N590" t="n">
+        <v>1</v>
+      </c>
+      <c r="O590" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>MAHLOG.NS</t>
+        </is>
+      </c>
+      <c r="B591" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C591" t="n">
+        <v>74</v>
+      </c>
+      <c r="D591" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E591" t="n">
+        <v>63</v>
+      </c>
+      <c r="F591" t="n">
+        <v>349.7000122070312</v>
+      </c>
+      <c r="G591" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="H591" t="n">
+        <v>70</v>
+      </c>
+      <c r="I591" t="n">
+        <v>348.0499877929688</v>
+      </c>
+      <c r="J591" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K591" t="n">
+        <v>-0.2357177734374838</v>
+      </c>
+      <c r="L591" t="n">
+        <v>364.5502319335927</v>
+      </c>
+      <c r="M591" t="n">
+        <v>3</v>
+      </c>
+      <c r="N591" t="n">
+        <v>1</v>
+      </c>
+      <c r="O591" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>HERCULES.NS</t>
+        </is>
+      </c>
+      <c r="B592" s="2" t="n">
+        <v>42767</v>
+      </c>
+      <c r="C592" t="n">
+        <v>107</v>
+      </c>
+      <c r="D592" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="E592" t="n">
+        <v>94</v>
+      </c>
+      <c r="F592" t="n">
+        <v>197.3999938964844</v>
+      </c>
+      <c r="G592" s="2" t="n">
+        <v>42644</v>
+      </c>
+      <c r="H592" t="n">
+        <v>103</v>
+      </c>
+      <c r="I592" t="n">
+        <v>195.8000030517578</v>
+      </c>
+      <c r="J592" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K592" t="n">
+        <v>-0.1777767605251768</v>
+      </c>
+      <c r="L592" t="n">
+        <v>214.111009385851</v>
+      </c>
+      <c r="M592" t="n">
+        <v>3</v>
+      </c>
+      <c r="N592" t="n">
+        <v>1</v>
+      </c>
+      <c r="O592" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>GMRINFRA.NS</t>
+        </is>
+      </c>
+      <c r="B593" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="C593" t="n">
+        <v>117</v>
+      </c>
+      <c r="D593" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="E593" t="n">
+        <v>107</v>
+      </c>
+      <c r="F593" t="n">
+        <v>8.829098701477051</v>
+      </c>
+      <c r="G593" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="H593" t="n">
+        <v>113</v>
+      </c>
+      <c r="I593" t="n">
+        <v>8.784051895141602</v>
+      </c>
+      <c r="J593" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K593" t="n">
+        <v>-0.007507801055908203</v>
+      </c>
+      <c r="L593" t="n">
+        <v>9.632433414459229</v>
+      </c>
+      <c r="M593" t="n">
+        <v>3</v>
+      </c>
+      <c r="N593" t="n">
+        <v>1</v>
+      </c>
+      <c r="O593" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>IDEA.NS</t>
+        </is>
+      </c>
+      <c r="B594" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="C594" t="n">
+        <v>206</v>
+      </c>
+      <c r="D594" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="E594" t="n">
+        <v>201</v>
+      </c>
+      <c r="F594" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="G594" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="H594" t="n">
+        <v>202</v>
+      </c>
+      <c r="I594" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="J594" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K594" t="n">
+        <v>0</v>
+      </c>
+      <c r="L594" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="M594" t="n">
+        <v>3</v>
+      </c>
+      <c r="N594" t="n">
+        <v>1</v>
+      </c>
+      <c r="O594" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>TATACHEM.NS</t>
+        </is>
+      </c>
+      <c r="B595" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="C595" t="n">
+        <v>341</v>
+      </c>
+      <c r="D595" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="E595" t="n">
+        <v>333</v>
+      </c>
+      <c r="F595" t="n">
+        <v>935</v>
+      </c>
+      <c r="G595" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="H595" t="n">
+        <v>337</v>
+      </c>
+      <c r="I595" t="n">
+        <v>933</v>
+      </c>
+      <c r="J595" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K595" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="L595" t="n">
+        <v>1101.5</v>
+      </c>
+      <c r="M595" t="n">
+        <v>3</v>
+      </c>
+      <c r="N595" t="n">
+        <v>1</v>
+      </c>
+      <c r="O595" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>TARC.NS</t>
+        </is>
+      </c>
+      <c r="B596" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C596" t="n">
+        <v>30</v>
+      </c>
+      <c r="D596" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="E596" t="n">
+        <v>13</v>
+      </c>
+      <c r="F596" t="n">
+        <v>33.59999847412109</v>
+      </c>
+      <c r="G596" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H596" t="n">
+        <v>26</v>
+      </c>
+      <c r="I596" t="n">
+        <v>33.54999923706055</v>
+      </c>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K596" t="n">
+        <v>-0.003846095158503059</v>
+      </c>
+      <c r="L596" t="n">
+        <v>33.64999771118163</v>
+      </c>
+      <c r="M596" t="n">
+        <v>3</v>
+      </c>
+      <c r="N596" t="n">
+        <v>1</v>
+      </c>
+      <c r="O596" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>ASTRAMICRO.NS</t>
+        </is>
+      </c>
+      <c r="B597" s="2" t="n">
+        <v>42430</v>
+      </c>
+      <c r="C597" t="n">
+        <v>136</v>
+      </c>
+      <c r="D597" s="2" t="n">
+        <v>41821</v>
+      </c>
+      <c r="E597" t="n">
+        <v>116</v>
+      </c>
+      <c r="F597" t="n">
+        <v>156.8000030517578</v>
+      </c>
+      <c r="G597" s="2" t="n">
+        <v>42309</v>
+      </c>
+      <c r="H597" t="n">
+        <v>132</v>
+      </c>
+      <c r="I597" t="n">
+        <v>155.3999938964844</v>
+      </c>
+      <c r="J597" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K597" t="n">
+        <v>-0.08750057220458807</v>
+      </c>
+      <c r="L597" t="n">
+        <v>166.95006942749</v>
+      </c>
+      <c r="M597" t="n">
+        <v>3</v>
+      </c>
+      <c r="N597" t="n">
+        <v>1</v>
+      </c>
+      <c r="O597" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>MICEL.NS</t>
+        </is>
+      </c>
+      <c r="B598" s="2" t="n">
+        <v>41244</v>
+      </c>
+      <c r="C598" t="n">
+        <v>66</v>
+      </c>
+      <c r="D598" s="2" t="n">
+        <v>41030</v>
+      </c>
+      <c r="E598" t="n">
+        <v>59</v>
+      </c>
+      <c r="F598" t="n">
+        <v>17.60000038146973</v>
+      </c>
+      <c r="G598" s="2" t="n">
+        <v>41122</v>
+      </c>
+      <c r="H598" t="n">
+        <v>62</v>
+      </c>
+      <c r="I598" t="n">
+        <v>17.60000038146973</v>
+      </c>
+      <c r="J598" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K598" t="n">
+        <v>0</v>
+      </c>
+      <c r="L598" t="n">
+        <v>17.60000038146973</v>
+      </c>
+      <c r="M598" t="n">
+        <v>3</v>
+      </c>
+      <c r="N598" t="n">
+        <v>1</v>
+      </c>
+      <c r="O598" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1mo/two_line_alerts_1mo_backup.xlsx
+++ b/excel/1mo/two_line_alerts_1mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O598"/>
+  <dimension ref="A1:O602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30961,6 +30961,210 @@
         <v>2</v>
       </c>
     </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>NLCINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B599" s="2" t="n">
+        <v>39845</v>
+      </c>
+      <c r="C599" t="n">
+        <v>101</v>
+      </c>
+      <c r="D599" s="2" t="n">
+        <v>38869</v>
+      </c>
+      <c r="E599" t="n">
+        <v>69</v>
+      </c>
+      <c r="F599" t="n">
+        <v>44</v>
+      </c>
+      <c r="G599" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="H599" t="n">
+        <v>97</v>
+      </c>
+      <c r="I599" t="n">
+        <v>44.40000152587891</v>
+      </c>
+      <c r="J599" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K599" t="n">
+        <v>0.01428576878138976</v>
+      </c>
+      <c r="L599" t="n">
+        <v>43.0142819540841</v>
+      </c>
+      <c r="M599" t="n">
+        <v>3</v>
+      </c>
+      <c r="N599" t="n">
+        <v>1</v>
+      </c>
+      <c r="O599" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>RIR.BO</t>
+        </is>
+      </c>
+      <c r="B600" s="2" t="n">
+        <v>40909</v>
+      </c>
+      <c r="C600" t="n">
+        <v>63</v>
+      </c>
+      <c r="D600" s="2" t="n">
+        <v>40664</v>
+      </c>
+      <c r="E600" t="n">
+        <v>55</v>
+      </c>
+      <c r="F600" t="n">
+        <v>13</v>
+      </c>
+      <c r="G600" s="2" t="n">
+        <v>40787</v>
+      </c>
+      <c r="H600" t="n">
+        <v>59</v>
+      </c>
+      <c r="I600" t="n">
+        <v>13</v>
+      </c>
+      <c r="J600" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K600" t="n">
+        <v>0</v>
+      </c>
+      <c r="L600" t="n">
+        <v>13</v>
+      </c>
+      <c r="M600" t="n">
+        <v>3</v>
+      </c>
+      <c r="N600" t="n">
+        <v>1</v>
+      </c>
+      <c r="O600" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>RIR.BO</t>
+        </is>
+      </c>
+      <c r="B601" s="2" t="n">
+        <v>42491</v>
+      </c>
+      <c r="C601" t="n">
+        <v>115</v>
+      </c>
+      <c r="D601" s="2" t="n">
+        <v>42186</v>
+      </c>
+      <c r="E601" t="n">
+        <v>105</v>
+      </c>
+      <c r="F601" t="n">
+        <v>28.54999923706055</v>
+      </c>
+      <c r="G601" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="H601" t="n">
+        <v>111</v>
+      </c>
+      <c r="I601" t="n">
+        <v>28.39999961853027</v>
+      </c>
+      <c r="J601" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K601" t="n">
+        <v>-0.02499993642171342</v>
+      </c>
+      <c r="L601" t="n">
+        <v>31.17499256134046</v>
+      </c>
+      <c r="M601" t="n">
+        <v>3</v>
+      </c>
+      <c r="N601" t="n">
+        <v>1</v>
+      </c>
+      <c r="O601" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>GOODYEAR.BO</t>
+        </is>
+      </c>
+      <c r="B602" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="C602" t="n">
+        <v>292</v>
+      </c>
+      <c r="D602" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="E602" t="n">
+        <v>281</v>
+      </c>
+      <c r="F602" t="n">
+        <v>1447</v>
+      </c>
+      <c r="G602" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="H602" t="n">
+        <v>288</v>
+      </c>
+      <c r="I602" t="n">
+        <v>1440</v>
+      </c>
+      <c r="J602" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K602" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L602" t="n">
+        <v>1728</v>
+      </c>
+      <c r="M602" t="n">
+        <v>3</v>
+      </c>
+      <c r="N602" t="n">
+        <v>1</v>
+      </c>
+      <c r="O602" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1mo/two_line_alerts_1mo_backup.xlsx
+++ b/excel/1mo/two_line_alerts_1mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O602"/>
+  <dimension ref="A1:O607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31165,6 +31165,261 @@
         <v>2</v>
       </c>
     </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>SUNTV.NS</t>
+        </is>
+      </c>
+      <c r="B603" s="2" t="n">
+        <v>39387</v>
+      </c>
+      <c r="C603" t="n">
+        <v>18</v>
+      </c>
+      <c r="D603" s="2" t="n">
+        <v>39114</v>
+      </c>
+      <c r="E603" t="n">
+        <v>9</v>
+      </c>
+      <c r="F603" t="n">
+        <v>461.9750061035156</v>
+      </c>
+      <c r="G603" s="2" t="n">
+        <v>39264</v>
+      </c>
+      <c r="H603" t="n">
+        <v>14</v>
+      </c>
+      <c r="I603" t="n">
+        <v>460</v>
+      </c>
+      <c r="J603" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K603" t="n">
+        <v>-0.395001220703125</v>
+      </c>
+      <c r="L603" t="n">
+        <v>465.5300170898437</v>
+      </c>
+      <c r="M603" t="n">
+        <v>3</v>
+      </c>
+      <c r="N603" t="n">
+        <v>1</v>
+      </c>
+      <c r="O603" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>SUNTV.NS</t>
+        </is>
+      </c>
+      <c r="B604" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="C604" t="n">
+        <v>97</v>
+      </c>
+      <c r="D604" s="2" t="n">
+        <v>41426</v>
+      </c>
+      <c r="E604" t="n">
+        <v>85</v>
+      </c>
+      <c r="F604" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="G604" s="2" t="n">
+        <v>41671</v>
+      </c>
+      <c r="H604" t="n">
+        <v>93</v>
+      </c>
+      <c r="I604" t="n">
+        <v>324.0499877929688</v>
+      </c>
+      <c r="J604" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K604" t="n">
+        <v>-0.05625152587890625</v>
+      </c>
+      <c r="L604" t="n">
+        <v>329.281379699707</v>
+      </c>
+      <c r="M604" t="n">
+        <v>3</v>
+      </c>
+      <c r="N604" t="n">
+        <v>1</v>
+      </c>
+      <c r="O604" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>SUNTV.NS</t>
+        </is>
+      </c>
+      <c r="B605" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="C605" t="n">
+        <v>111</v>
+      </c>
+      <c r="D605" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="E605" t="n">
+        <v>106</v>
+      </c>
+      <c r="F605" t="n">
+        <v>459</v>
+      </c>
+      <c r="G605" s="2" t="n">
+        <v>42095</v>
+      </c>
+      <c r="H605" t="n">
+        <v>107</v>
+      </c>
+      <c r="I605" t="n">
+        <v>459</v>
+      </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K605" t="n">
+        <v>0</v>
+      </c>
+      <c r="L605" t="n">
+        <v>459</v>
+      </c>
+      <c r="M605" t="n">
+        <v>3</v>
+      </c>
+      <c r="N605" t="n">
+        <v>1</v>
+      </c>
+      <c r="O605" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>ASTRAL.NS</t>
+        </is>
+      </c>
+      <c r="B606" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="C606" t="n">
+        <v>158</v>
+      </c>
+      <c r="D606" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="E606" t="n">
+        <v>149</v>
+      </c>
+      <c r="F606" t="n">
+        <v>712.9970703125</v>
+      </c>
+      <c r="G606" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="H606" t="n">
+        <v>154</v>
+      </c>
+      <c r="I606" t="n">
+        <v>711.5626831054688</v>
+      </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K606" t="n">
+        <v>-0.28687744140625</v>
+      </c>
+      <c r="L606" t="n">
+        <v>755.7418090820313</v>
+      </c>
+      <c r="M606" t="n">
+        <v>3</v>
+      </c>
+      <c r="N606" t="n">
+        <v>1</v>
+      </c>
+      <c r="O606" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>GNFC.NS</t>
+        </is>
+      </c>
+      <c r="B607" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C607" t="n">
+        <v>132</v>
+      </c>
+      <c r="D607" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="E607" t="n">
+        <v>113</v>
+      </c>
+      <c r="F607" t="n">
+        <v>70.44999694824219</v>
+      </c>
+      <c r="G607" s="2" t="n">
+        <v>41334</v>
+      </c>
+      <c r="H607" t="n">
+        <v>128</v>
+      </c>
+      <c r="I607" t="n">
+        <v>69.90000152587891</v>
+      </c>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K607" t="n">
+        <v>-0.03666636149088542</v>
+      </c>
+      <c r="L607" t="n">
+        <v>74.59329579671224</v>
+      </c>
+      <c r="M607" t="n">
+        <v>3</v>
+      </c>
+      <c r="N607" t="n">
+        <v>1</v>
+      </c>
+      <c r="O607" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1mo/two_line_alerts_1mo_backup.xlsx
+++ b/excel/1mo/two_line_alerts_1mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O579"/>
+  <dimension ref="A1:O584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29992,6 +29992,261 @@
         <v>2</v>
       </c>
     </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>SUNTV.NS</t>
+        </is>
+      </c>
+      <c r="B580" s="2" t="n">
+        <v>39387</v>
+      </c>
+      <c r="C580" t="n">
+        <v>18</v>
+      </c>
+      <c r="D580" s="2" t="n">
+        <v>39114</v>
+      </c>
+      <c r="E580" t="n">
+        <v>9</v>
+      </c>
+      <c r="F580" t="n">
+        <v>461.9750061035156</v>
+      </c>
+      <c r="G580" s="2" t="n">
+        <v>39264</v>
+      </c>
+      <c r="H580" t="n">
+        <v>14</v>
+      </c>
+      <c r="I580" t="n">
+        <v>460</v>
+      </c>
+      <c r="J580" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K580" t="n">
+        <v>-0.395001220703125</v>
+      </c>
+      <c r="L580" t="n">
+        <v>465.5300170898437</v>
+      </c>
+      <c r="M580" t="n">
+        <v>3</v>
+      </c>
+      <c r="N580" t="n">
+        <v>1</v>
+      </c>
+      <c r="O580" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>SUNTV.NS</t>
+        </is>
+      </c>
+      <c r="B581" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="C581" t="n">
+        <v>97</v>
+      </c>
+      <c r="D581" s="2" t="n">
+        <v>41426</v>
+      </c>
+      <c r="E581" t="n">
+        <v>85</v>
+      </c>
+      <c r="F581" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="G581" s="2" t="n">
+        <v>41671</v>
+      </c>
+      <c r="H581" t="n">
+        <v>93</v>
+      </c>
+      <c r="I581" t="n">
+        <v>324.0499877929688</v>
+      </c>
+      <c r="J581" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K581" t="n">
+        <v>-0.05625152587890625</v>
+      </c>
+      <c r="L581" t="n">
+        <v>329.281379699707</v>
+      </c>
+      <c r="M581" t="n">
+        <v>3</v>
+      </c>
+      <c r="N581" t="n">
+        <v>1</v>
+      </c>
+      <c r="O581" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>GNFC.NS</t>
+        </is>
+      </c>
+      <c r="B582" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C582" t="n">
+        <v>132</v>
+      </c>
+      <c r="D582" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="E582" t="n">
+        <v>113</v>
+      </c>
+      <c r="F582" t="n">
+        <v>70.44999694824219</v>
+      </c>
+      <c r="G582" s="2" t="n">
+        <v>41334</v>
+      </c>
+      <c r="H582" t="n">
+        <v>128</v>
+      </c>
+      <c r="I582" t="n">
+        <v>69.90000152587891</v>
+      </c>
+      <c r="J582" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K582" t="n">
+        <v>-0.03666636149088542</v>
+      </c>
+      <c r="L582" t="n">
+        <v>74.59329579671224</v>
+      </c>
+      <c r="M582" t="n">
+        <v>3</v>
+      </c>
+      <c r="N582" t="n">
+        <v>1</v>
+      </c>
+      <c r="O582" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>SUNTV.NS</t>
+        </is>
+      </c>
+      <c r="B583" s="2" t="n">
+        <v>42491</v>
+      </c>
+      <c r="C583" t="n">
+        <v>120</v>
+      </c>
+      <c r="D583" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="E583" t="n">
+        <v>106</v>
+      </c>
+      <c r="F583" t="n">
+        <v>459</v>
+      </c>
+      <c r="G583" s="2" t="n">
+        <v>42095</v>
+      </c>
+      <c r="H583" t="n">
+        <v>107</v>
+      </c>
+      <c r="I583" t="n">
+        <v>459</v>
+      </c>
+      <c r="J583" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K583" t="n">
+        <v>0</v>
+      </c>
+      <c r="L583" t="n">
+        <v>459</v>
+      </c>
+      <c r="M583" t="n">
+        <v>3</v>
+      </c>
+      <c r="N583" t="n">
+        <v>1</v>
+      </c>
+      <c r="O583" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>ASTRAL.NS</t>
+        </is>
+      </c>
+      <c r="B584" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="C584" t="n">
+        <v>158</v>
+      </c>
+      <c r="D584" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="E584" t="n">
+        <v>149</v>
+      </c>
+      <c r="F584" t="n">
+        <v>712.9970703125</v>
+      </c>
+      <c r="G584" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="H584" t="n">
+        <v>154</v>
+      </c>
+      <c r="I584" t="n">
+        <v>711.5626831054688</v>
+      </c>
+      <c r="J584" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K584" t="n">
+        <v>-0.28687744140625</v>
+      </c>
+      <c r="L584" t="n">
+        <v>755.7418090820313</v>
+      </c>
+      <c r="M584" t="n">
+        <v>3</v>
+      </c>
+      <c r="N584" t="n">
+        <v>1</v>
+      </c>
+      <c r="O584" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1mo/two_line_alerts_1mo_backup.xlsx
+++ b/excel/1mo/two_line_alerts_1mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O566"/>
+  <dimension ref="A1:O568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29329,6 +29329,108 @@
         <v>2</v>
       </c>
     </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>ASTRAL.NS</t>
+        </is>
+      </c>
+      <c r="B567" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="C567" t="n">
+        <v>158</v>
+      </c>
+      <c r="D567" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="E567" t="n">
+        <v>149</v>
+      </c>
+      <c r="F567" t="n">
+        <v>712.9970703125</v>
+      </c>
+      <c r="G567" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="H567" t="n">
+        <v>154</v>
+      </c>
+      <c r="I567" t="n">
+        <v>711.5626831054688</v>
+      </c>
+      <c r="J567" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K567" t="n">
+        <v>-0.28687744140625</v>
+      </c>
+      <c r="L567" t="n">
+        <v>755.7418090820313</v>
+      </c>
+      <c r="M567" t="n">
+        <v>3</v>
+      </c>
+      <c r="N567" t="n">
+        <v>1</v>
+      </c>
+      <c r="O567" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>GNFC.NS</t>
+        </is>
+      </c>
+      <c r="B568" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C568" t="n">
+        <v>132</v>
+      </c>
+      <c r="D568" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="E568" t="n">
+        <v>113</v>
+      </c>
+      <c r="F568" t="n">
+        <v>70.44999694824219</v>
+      </c>
+      <c r="G568" s="2" t="n">
+        <v>41334</v>
+      </c>
+      <c r="H568" t="n">
+        <v>128</v>
+      </c>
+      <c r="I568" t="n">
+        <v>69.90000152587891</v>
+      </c>
+      <c r="J568" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K568" t="n">
+        <v>-0.03666636149088542</v>
+      </c>
+      <c r="L568" t="n">
+        <v>74.59329579671224</v>
+      </c>
+      <c r="M568" t="n">
+        <v>3</v>
+      </c>
+      <c r="N568" t="n">
+        <v>1</v>
+      </c>
+      <c r="O568" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1mo/two_line_alerts_1mo_backup.xlsx
+++ b/excel/1mo/two_line_alerts_1mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O579"/>
+  <dimension ref="A1:O581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29992,6 +29992,108 @@
         <v>2</v>
       </c>
     </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>GNFC.NS</t>
+        </is>
+      </c>
+      <c r="B580" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="C580" t="n">
+        <v>132</v>
+      </c>
+      <c r="D580" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="E580" t="n">
+        <v>113</v>
+      </c>
+      <c r="F580" t="n">
+        <v>70.44999694824219</v>
+      </c>
+      <c r="G580" s="2" t="n">
+        <v>41334</v>
+      </c>
+      <c r="H580" t="n">
+        <v>128</v>
+      </c>
+      <c r="I580" t="n">
+        <v>69.90000152587891</v>
+      </c>
+      <c r="J580" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K580" t="n">
+        <v>-0.03666636149088542</v>
+      </c>
+      <c r="L580" t="n">
+        <v>74.59329579671224</v>
+      </c>
+      <c r="M580" t="n">
+        <v>3</v>
+      </c>
+      <c r="N580" t="n">
+        <v>1</v>
+      </c>
+      <c r="O580" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>ASTRAL.NS</t>
+        </is>
+      </c>
+      <c r="B581" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="C581" t="n">
+        <v>158</v>
+      </c>
+      <c r="D581" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="E581" t="n">
+        <v>149</v>
+      </c>
+      <c r="F581" t="n">
+        <v>712.9970703125</v>
+      </c>
+      <c r="G581" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="H581" t="n">
+        <v>154</v>
+      </c>
+      <c r="I581" t="n">
+        <v>711.5626831054688</v>
+      </c>
+      <c r="J581" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K581" t="n">
+        <v>-0.28687744140625</v>
+      </c>
+      <c r="L581" t="n">
+        <v>755.7418090820313</v>
+      </c>
+      <c r="M581" t="n">
+        <v>3</v>
+      </c>
+      <c r="N581" t="n">
+        <v>1</v>
+      </c>
+      <c r="O581" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1mo/two_line_alerts_1mo_backup.xlsx
+++ b/excel/1mo/two_line_alerts_1mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O581"/>
+  <dimension ref="A1:O645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30094,6 +30094,3270 @@
         <v>2</v>
       </c>
     </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>CRANEINFRA.BO</t>
+        </is>
+      </c>
+      <c r="B582" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="C582" t="n">
+        <v>40</v>
+      </c>
+      <c r="D582" s="2" t="n">
+        <v>42979</v>
+      </c>
+      <c r="E582" t="n">
+        <v>30</v>
+      </c>
+      <c r="F582" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="G582" s="2" t="n">
+        <v>43160</v>
+      </c>
+      <c r="H582" t="n">
+        <v>36</v>
+      </c>
+      <c r="I582" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="J582" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K582" t="n">
+        <v>0</v>
+      </c>
+      <c r="L582" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="M582" t="n">
+        <v>3</v>
+      </c>
+      <c r="N582" t="n">
+        <v>1</v>
+      </c>
+      <c r="O582" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>CRANEINFRA.BO</t>
+        </is>
+      </c>
+      <c r="B583" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="C583" t="n">
+        <v>40</v>
+      </c>
+      <c r="D583" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="E583" t="n">
+        <v>31</v>
+      </c>
+      <c r="F583" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="G583" s="2" t="n">
+        <v>43160</v>
+      </c>
+      <c r="H583" t="n">
+        <v>36</v>
+      </c>
+      <c r="I583" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="J583" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K583" t="n">
+        <v>0</v>
+      </c>
+      <c r="L583" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="M583" t="n">
+        <v>3</v>
+      </c>
+      <c r="N583" t="n">
+        <v>1</v>
+      </c>
+      <c r="O583" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>CRANEINFRA.BO</t>
+        </is>
+      </c>
+      <c r="B584" s="2" t="n">
+        <v>43313</v>
+      </c>
+      <c r="C584" t="n">
+        <v>41</v>
+      </c>
+      <c r="D584" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="E584" t="n">
+        <v>31</v>
+      </c>
+      <c r="F584" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="G584" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="H584" t="n">
+        <v>37</v>
+      </c>
+      <c r="I584" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="J584" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K584" t="n">
+        <v>0</v>
+      </c>
+      <c r="L584" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="M584" t="n">
+        <v>3</v>
+      </c>
+      <c r="N584" t="n">
+        <v>1</v>
+      </c>
+      <c r="O584" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>ALKALI.NS</t>
+        </is>
+      </c>
+      <c r="B585" s="2" t="n">
+        <v>41821</v>
+      </c>
+      <c r="C585" t="n">
+        <v>67</v>
+      </c>
+      <c r="D585" s="2" t="n">
+        <v>41671</v>
+      </c>
+      <c r="E585" t="n">
+        <v>62</v>
+      </c>
+      <c r="F585" t="n">
+        <v>15</v>
+      </c>
+      <c r="G585" s="2" t="n">
+        <v>41699</v>
+      </c>
+      <c r="H585" t="n">
+        <v>63</v>
+      </c>
+      <c r="I585" t="n">
+        <v>15</v>
+      </c>
+      <c r="J585" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K585" t="n">
+        <v>0</v>
+      </c>
+      <c r="L585" t="n">
+        <v>15</v>
+      </c>
+      <c r="M585" t="n">
+        <v>3</v>
+      </c>
+      <c r="N585" t="n">
+        <v>1</v>
+      </c>
+      <c r="O585" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>LAURUSLABS.NS</t>
+        </is>
+      </c>
+      <c r="B586" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="C586" t="n">
+        <v>69</v>
+      </c>
+      <c r="D586" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="E586" t="n">
+        <v>60</v>
+      </c>
+      <c r="F586" t="n">
+        <v>440</v>
+      </c>
+      <c r="G586" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="H586" t="n">
+        <v>65</v>
+      </c>
+      <c r="I586" t="n">
+        <v>436.7999877929688</v>
+      </c>
+      <c r="J586" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K586" t="n">
+        <v>-0.64000244140625</v>
+      </c>
+      <c r="L586" t="n">
+        <v>478.400146484375</v>
+      </c>
+      <c r="M586" t="n">
+        <v>3</v>
+      </c>
+      <c r="N586" t="n">
+        <v>1</v>
+      </c>
+      <c r="O586" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>BGRENERGY.NS</t>
+        </is>
+      </c>
+      <c r="B587" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C587" t="n">
+        <v>95</v>
+      </c>
+      <c r="D587" s="2" t="n">
+        <v>41671</v>
+      </c>
+      <c r="E587" t="n">
+        <v>72</v>
+      </c>
+      <c r="F587" t="n">
+        <v>99.80000305175781</v>
+      </c>
+      <c r="G587" s="2" t="n">
+        <v>42248</v>
+      </c>
+      <c r="H587" t="n">
+        <v>91</v>
+      </c>
+      <c r="I587" t="n">
+        <v>99.05000305175781</v>
+      </c>
+      <c r="J587" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K587" t="n">
+        <v>-0.03947368421052631</v>
+      </c>
+      <c r="L587" t="n">
+        <v>102.6421083149157</v>
+      </c>
+      <c r="M587" t="n">
+        <v>3</v>
+      </c>
+      <c r="N587" t="n">
+        <v>1</v>
+      </c>
+      <c r="O587" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>CRANEINFRA.BO</t>
+        </is>
+      </c>
+      <c r="B588" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="C588" t="n">
+        <v>66</v>
+      </c>
+      <c r="D588" s="2" t="n">
+        <v>43497</v>
+      </c>
+      <c r="E588" t="n">
+        <v>47</v>
+      </c>
+      <c r="F588" t="n">
+        <v>13.60000038146973</v>
+      </c>
+      <c r="G588" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="H588" t="n">
+        <v>51</v>
+      </c>
+      <c r="I588" t="n">
+        <v>13.57999992370605</v>
+      </c>
+      <c r="J588" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K588" t="n">
+        <v>-0.005000114440917969</v>
+      </c>
+      <c r="L588" t="n">
+        <v>13.83500576019287</v>
+      </c>
+      <c r="M588" t="n">
+        <v>3</v>
+      </c>
+      <c r="N588" t="n">
+        <v>1</v>
+      </c>
+      <c r="O588" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>DECCANCE.NS</t>
+        </is>
+      </c>
+      <c r="B589" s="2" t="n">
+        <v>41030</v>
+      </c>
+      <c r="C589" t="n">
+        <v>116</v>
+      </c>
+      <c r="D589" s="2" t="n">
+        <v>40575</v>
+      </c>
+      <c r="E589" t="n">
+        <v>101</v>
+      </c>
+      <c r="F589" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="G589" s="2" t="n">
+        <v>40909</v>
+      </c>
+      <c r="H589" t="n">
+        <v>112</v>
+      </c>
+      <c r="I589" t="n">
+        <v>61.04999923706055</v>
+      </c>
+      <c r="J589" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K589" t="n">
+        <v>0.0499999306418679</v>
+      </c>
+      <c r="L589" t="n">
+        <v>55.45000700517134</v>
+      </c>
+      <c r="M589" t="n">
+        <v>3</v>
+      </c>
+      <c r="N589" t="n">
+        <v>1</v>
+      </c>
+      <c r="O589" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>ALKALI.NS</t>
+        </is>
+      </c>
+      <c r="B590" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C590" t="n">
+        <v>126</v>
+      </c>
+      <c r="D590" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="E590" t="n">
+        <v>86</v>
+      </c>
+      <c r="F590" t="n">
+        <v>34.90000152587891</v>
+      </c>
+      <c r="G590" s="2" t="n">
+        <v>43497</v>
+      </c>
+      <c r="H590" t="n">
+        <v>122</v>
+      </c>
+      <c r="I590" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="J590" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K590" t="n">
+        <v>0.009722179836697049</v>
+      </c>
+      <c r="L590" t="n">
+        <v>34.06389405992296</v>
+      </c>
+      <c r="M590" t="n">
+        <v>3</v>
+      </c>
+      <c r="N590" t="n">
+        <v>1</v>
+      </c>
+      <c r="O590" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>DECCANCE.NS</t>
+        </is>
+      </c>
+      <c r="B591" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="C591" t="n">
+        <v>141</v>
+      </c>
+      <c r="D591" s="2" t="n">
+        <v>41640</v>
+      </c>
+      <c r="E591" t="n">
+        <v>136</v>
+      </c>
+      <c r="F591" t="n">
+        <v>71</v>
+      </c>
+      <c r="G591" s="2" t="n">
+        <v>41671</v>
+      </c>
+      <c r="H591" t="n">
+        <v>137</v>
+      </c>
+      <c r="I591" t="n">
+        <v>71</v>
+      </c>
+      <c r="J591" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K591" t="n">
+        <v>0</v>
+      </c>
+      <c r="L591" t="n">
+        <v>71</v>
+      </c>
+      <c r="M591" t="n">
+        <v>3</v>
+      </c>
+      <c r="N591" t="n">
+        <v>1</v>
+      </c>
+      <c r="O591" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>ALKALI.NS</t>
+        </is>
+      </c>
+      <c r="B592" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="C592" t="n">
+        <v>144</v>
+      </c>
+      <c r="D592" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="E592" t="n">
+        <v>131</v>
+      </c>
+      <c r="F592" t="n">
+        <v>59</v>
+      </c>
+      <c r="G592" s="2" t="n">
+        <v>44044</v>
+      </c>
+      <c r="H592" t="n">
+        <v>140</v>
+      </c>
+      <c r="I592" t="n">
+        <v>58.95000076293945</v>
+      </c>
+      <c r="J592" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K592" t="n">
+        <v>-0.005555470784505208</v>
+      </c>
+      <c r="L592" t="n">
+        <v>59.72776667277018</v>
+      </c>
+      <c r="M592" t="n">
+        <v>3</v>
+      </c>
+      <c r="N592" t="n">
+        <v>1</v>
+      </c>
+      <c r="O592" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>ALKALI.NS</t>
+        </is>
+      </c>
+      <c r="B593" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="C593" t="n">
+        <v>178</v>
+      </c>
+      <c r="D593" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="E593" t="n">
+        <v>157</v>
+      </c>
+      <c r="F593" t="n">
+        <v>144</v>
+      </c>
+      <c r="G593" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="H593" t="n">
+        <v>174</v>
+      </c>
+      <c r="I593" t="n">
+        <v>143.4499969482422</v>
+      </c>
+      <c r="J593" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K593" t="n">
+        <v>-0.03235312069163603</v>
+      </c>
+      <c r="L593" t="n">
+        <v>149.0794399485869</v>
+      </c>
+      <c r="M593" t="n">
+        <v>3</v>
+      </c>
+      <c r="N593" t="n">
+        <v>1</v>
+      </c>
+      <c r="O593" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>RAMCOIND.NS</t>
+        </is>
+      </c>
+      <c r="B594" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C594" t="n">
+        <v>203</v>
+      </c>
+      <c r="D594" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="E594" t="n">
+        <v>195</v>
+      </c>
+      <c r="F594" t="n">
+        <v>172.1000061035156</v>
+      </c>
+      <c r="G594" s="2" t="n">
+        <v>43497</v>
+      </c>
+      <c r="H594" t="n">
+        <v>199</v>
+      </c>
+      <c r="I594" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="J594" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K594" t="n">
+        <v>0.3499984741210938</v>
+      </c>
+      <c r="L594" t="n">
+        <v>103.8503036499023</v>
+      </c>
+      <c r="M594" t="n">
+        <v>3</v>
+      </c>
+      <c r="N594" t="n">
+        <v>1</v>
+      </c>
+      <c r="O594" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>ANDHRAPAP.NS</t>
+        </is>
+      </c>
+      <c r="B595" s="2" t="n">
+        <v>42339</v>
+      </c>
+      <c r="C595" t="n">
+        <v>239</v>
+      </c>
+      <c r="D595" s="2" t="n">
+        <v>41883</v>
+      </c>
+      <c r="E595" t="n">
+        <v>224</v>
+      </c>
+      <c r="F595" t="n">
+        <v>394</v>
+      </c>
+      <c r="G595" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="H595" t="n">
+        <v>235</v>
+      </c>
+      <c r="I595" t="n">
+        <v>391.1000061035156</v>
+      </c>
+      <c r="J595" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K595" t="n">
+        <v>-0.2636358087713068</v>
+      </c>
+      <c r="L595" t="n">
+        <v>453.0544211647727</v>
+      </c>
+      <c r="M595" t="n">
+        <v>3</v>
+      </c>
+      <c r="N595" t="n">
+        <v>1</v>
+      </c>
+      <c r="O595" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>ANDHRAPAP.NS</t>
+        </is>
+      </c>
+      <c r="B596" s="2" t="n">
+        <v>42339</v>
+      </c>
+      <c r="C596" t="n">
+        <v>239</v>
+      </c>
+      <c r="D596" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="E596" t="n">
+        <v>230</v>
+      </c>
+      <c r="F596" t="n">
+        <v>389.7000122070312</v>
+      </c>
+      <c r="G596" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="H596" t="n">
+        <v>235</v>
+      </c>
+      <c r="I596" t="n">
+        <v>391.1000061035156</v>
+      </c>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K596" t="n">
+        <v>0.279998779296875</v>
+      </c>
+      <c r="L596" t="n">
+        <v>325.30029296875</v>
+      </c>
+      <c r="M596" t="n">
+        <v>3</v>
+      </c>
+      <c r="N596" t="n">
+        <v>1</v>
+      </c>
+      <c r="O596" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>ANDHRAPAP.NS</t>
+        </is>
+      </c>
+      <c r="B597" s="2" t="n">
+        <v>43160</v>
+      </c>
+      <c r="C597" t="n">
+        <v>266</v>
+      </c>
+      <c r="D597" s="2" t="n">
+        <v>42948</v>
+      </c>
+      <c r="E597" t="n">
+        <v>259</v>
+      </c>
+      <c r="F597" t="n">
+        <v>277</v>
+      </c>
+      <c r="G597" s="2" t="n">
+        <v>43040</v>
+      </c>
+      <c r="H597" t="n">
+        <v>262</v>
+      </c>
+      <c r="I597" t="n">
+        <v>277</v>
+      </c>
+      <c r="J597" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K597" t="n">
+        <v>0</v>
+      </c>
+      <c r="L597" t="n">
+        <v>277</v>
+      </c>
+      <c r="M597" t="n">
+        <v>3</v>
+      </c>
+      <c r="N597" t="n">
+        <v>1</v>
+      </c>
+      <c r="O597" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>ADFFOODS.NS</t>
+        </is>
+      </c>
+      <c r="B598" s="2" t="n">
+        <v>41153</v>
+      </c>
+      <c r="C598" t="n">
+        <v>23</v>
+      </c>
+      <c r="D598" s="2" t="n">
+        <v>40848</v>
+      </c>
+      <c r="E598" t="n">
+        <v>13</v>
+      </c>
+      <c r="F598" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="G598" s="2" t="n">
+        <v>41030</v>
+      </c>
+      <c r="H598" t="n">
+        <v>19</v>
+      </c>
+      <c r="I598" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="J598" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K598" t="n">
+        <v>0</v>
+      </c>
+      <c r="L598" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="M598" t="n">
+        <v>3</v>
+      </c>
+      <c r="N598" t="n">
+        <v>1</v>
+      </c>
+      <c r="O598" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>FCL.NS</t>
+        </is>
+      </c>
+      <c r="B599" s="2" t="n">
+        <v>42948</v>
+      </c>
+      <c r="C599" t="n">
+        <v>30</v>
+      </c>
+      <c r="D599" s="2" t="n">
+        <v>42675</v>
+      </c>
+      <c r="E599" t="n">
+        <v>21</v>
+      </c>
+      <c r="F599" t="n">
+        <v>41.29999923706055</v>
+      </c>
+      <c r="G599" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="H599" t="n">
+        <v>26</v>
+      </c>
+      <c r="I599" t="n">
+        <v>41.70000076293945</v>
+      </c>
+      <c r="J599" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K599" t="n">
+        <v>0.08000030517578124</v>
+      </c>
+      <c r="L599" t="n">
+        <v>39.61999282836914</v>
+      </c>
+      <c r="M599" t="n">
+        <v>3</v>
+      </c>
+      <c r="N599" t="n">
+        <v>1</v>
+      </c>
+      <c r="O599" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>APEX.NS</t>
+        </is>
+      </c>
+      <c r="B600" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C600" t="n">
+        <v>75</v>
+      </c>
+      <c r="D600" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="E600" t="n">
+        <v>51</v>
+      </c>
+      <c r="F600" t="n">
+        <v>361.3999938964844</v>
+      </c>
+      <c r="G600" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="H600" t="n">
+        <v>58</v>
+      </c>
+      <c r="I600" t="n">
+        <v>365</v>
+      </c>
+      <c r="J600" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K600" t="n">
+        <v>0.5142865862165179</v>
+      </c>
+      <c r="L600" t="n">
+        <v>335.171377999442</v>
+      </c>
+      <c r="M600" t="n">
+        <v>3</v>
+      </c>
+      <c r="N600" t="n">
+        <v>1</v>
+      </c>
+      <c r="O600" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>TANFACIND.BO</t>
+        </is>
+      </c>
+      <c r="B601" s="2" t="n">
+        <v>39508</v>
+      </c>
+      <c r="C601" t="n">
+        <v>74</v>
+      </c>
+      <c r="D601" s="2" t="n">
+        <v>38961</v>
+      </c>
+      <c r="E601" t="n">
+        <v>56</v>
+      </c>
+      <c r="F601" t="n">
+        <v>51.90000152587891</v>
+      </c>
+      <c r="G601" s="2" t="n">
+        <v>39114</v>
+      </c>
+      <c r="H601" t="n">
+        <v>61</v>
+      </c>
+      <c r="I601" t="n">
+        <v>52.34999847412109</v>
+      </c>
+      <c r="J601" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K601" t="n">
+        <v>0.0899993896484375</v>
+      </c>
+      <c r="L601" t="n">
+        <v>46.8600357055664</v>
+      </c>
+      <c r="M601" t="n">
+        <v>3</v>
+      </c>
+      <c r="N601" t="n">
+        <v>1</v>
+      </c>
+      <c r="O601" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>TANFACIND.BO</t>
+        </is>
+      </c>
+      <c r="B602" s="2" t="n">
+        <v>39630</v>
+      </c>
+      <c r="C602" t="n">
+        <v>78</v>
+      </c>
+      <c r="D602" s="2" t="n">
+        <v>39295</v>
+      </c>
+      <c r="E602" t="n">
+        <v>67</v>
+      </c>
+      <c r="F602" t="n">
+        <v>36</v>
+      </c>
+      <c r="G602" s="2" t="n">
+        <v>39508</v>
+      </c>
+      <c r="H602" t="n">
+        <v>74</v>
+      </c>
+      <c r="I602" t="n">
+        <v>36.04999923706055</v>
+      </c>
+      <c r="J602" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K602" t="n">
+        <v>0.007142748151506696</v>
+      </c>
+      <c r="L602" t="n">
+        <v>35.52143587384905</v>
+      </c>
+      <c r="M602" t="n">
+        <v>3</v>
+      </c>
+      <c r="N602" t="n">
+        <v>1</v>
+      </c>
+      <c r="O602" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>ADFFOODS.NS</t>
+        </is>
+      </c>
+      <c r="B603" s="2" t="n">
+        <v>42186</v>
+      </c>
+      <c r="C603" t="n">
+        <v>57</v>
+      </c>
+      <c r="D603" s="2" t="n">
+        <v>41671</v>
+      </c>
+      <c r="E603" t="n">
+        <v>40</v>
+      </c>
+      <c r="F603" t="n">
+        <v>8.199999809265137</v>
+      </c>
+      <c r="G603" s="2" t="n">
+        <v>41699</v>
+      </c>
+      <c r="H603" t="n">
+        <v>41</v>
+      </c>
+      <c r="I603" t="n">
+        <v>8.199999809265137</v>
+      </c>
+      <c r="J603" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K603" t="n">
+        <v>0</v>
+      </c>
+      <c r="L603" t="n">
+        <v>8.199999809265137</v>
+      </c>
+      <c r="M603" t="n">
+        <v>3</v>
+      </c>
+      <c r="N603" t="n">
+        <v>1</v>
+      </c>
+      <c r="O603" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>KCP.NS</t>
+        </is>
+      </c>
+      <c r="B604" s="2" t="n">
+        <v>40544</v>
+      </c>
+      <c r="C604" t="n">
+        <v>102</v>
+      </c>
+      <c r="D604" s="2" t="n">
+        <v>39965</v>
+      </c>
+      <c r="E604" t="n">
+        <v>83</v>
+      </c>
+      <c r="F604" t="n">
+        <v>36.79999923706055</v>
+      </c>
+      <c r="G604" s="2" t="n">
+        <v>40422</v>
+      </c>
+      <c r="H604" t="n">
+        <v>98</v>
+      </c>
+      <c r="I604" t="n">
+        <v>37</v>
+      </c>
+      <c r="J604" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K604" t="n">
+        <v>0.01333338419596354</v>
+      </c>
+      <c r="L604" t="n">
+        <v>35.69332834879557</v>
+      </c>
+      <c r="M604" t="n">
+        <v>3</v>
+      </c>
+      <c r="N604" t="n">
+        <v>1</v>
+      </c>
+      <c r="O604" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>HERITGFOOD.NS</t>
+        </is>
+      </c>
+      <c r="B605" s="2" t="n">
+        <v>40544</v>
+      </c>
+      <c r="C605" t="n">
+        <v>102</v>
+      </c>
+      <c r="D605" s="2" t="n">
+        <v>40179</v>
+      </c>
+      <c r="E605" t="n">
+        <v>90</v>
+      </c>
+      <c r="F605" t="n">
+        <v>32.58197021484375</v>
+      </c>
+      <c r="G605" s="2" t="n">
+        <v>40422</v>
+      </c>
+      <c r="H605" t="n">
+        <v>98</v>
+      </c>
+      <c r="I605" t="n">
+        <v>32.79749298095703</v>
+      </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K605" t="n">
+        <v>0.02694034576416016</v>
+      </c>
+      <c r="L605" t="n">
+        <v>30.15733909606934</v>
+      </c>
+      <c r="M605" t="n">
+        <v>3</v>
+      </c>
+      <c r="N605" t="n">
+        <v>1</v>
+      </c>
+      <c r="O605" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>VAIBHAVGBL.NS</t>
+        </is>
+      </c>
+      <c r="B606" s="2" t="n">
+        <v>41000</v>
+      </c>
+      <c r="C606" t="n">
+        <v>95</v>
+      </c>
+      <c r="D606" s="2" t="n">
+        <v>40848</v>
+      </c>
+      <c r="E606" t="n">
+        <v>90</v>
+      </c>
+      <c r="F606" t="n">
+        <v>4.860000133514404</v>
+      </c>
+      <c r="G606" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="H606" t="n">
+        <v>91</v>
+      </c>
+      <c r="I606" t="n">
+        <v>4.860000133514404</v>
+      </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K606" t="n">
+        <v>0</v>
+      </c>
+      <c r="L606" t="n">
+        <v>4.860000133514404</v>
+      </c>
+      <c r="M606" t="n">
+        <v>3</v>
+      </c>
+      <c r="N606" t="n">
+        <v>1</v>
+      </c>
+      <c r="O606" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>COROMANDEL.NS</t>
+        </is>
+      </c>
+      <c r="B607" s="2" t="n">
+        <v>40756</v>
+      </c>
+      <c r="C607" t="n">
+        <v>107</v>
+      </c>
+      <c r="D607" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="E607" t="n">
+        <v>97</v>
+      </c>
+      <c r="F607" t="n">
+        <v>361.0499877929688</v>
+      </c>
+      <c r="G607" s="2" t="n">
+        <v>40634</v>
+      </c>
+      <c r="H607" t="n">
+        <v>103</v>
+      </c>
+      <c r="I607" t="n">
+        <v>359.8999938964844</v>
+      </c>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K607" t="n">
+        <v>-0.1916656494140625</v>
+      </c>
+      <c r="L607" t="n">
+        <v>379.6415557861328</v>
+      </c>
+      <c r="M607" t="n">
+        <v>3</v>
+      </c>
+      <c r="N607" t="n">
+        <v>1</v>
+      </c>
+      <c r="O607" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>SASTASUNDR.NS</t>
+        </is>
+      </c>
+      <c r="B608" s="2" t="n">
+        <v>43405</v>
+      </c>
+      <c r="C608" t="n">
+        <v>96</v>
+      </c>
+      <c r="D608" s="2" t="n">
+        <v>42948</v>
+      </c>
+      <c r="E608" t="n">
+        <v>81</v>
+      </c>
+      <c r="F608" t="n">
+        <v>76</v>
+      </c>
+      <c r="G608" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="H608" t="n">
+        <v>92</v>
+      </c>
+      <c r="I608" t="n">
+        <v>76.30000305175781</v>
+      </c>
+      <c r="J608" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K608" t="n">
+        <v>0.02727300470525568</v>
+      </c>
+      <c r="L608" t="n">
+        <v>73.7908866188743</v>
+      </c>
+      <c r="M608" t="n">
+        <v>3</v>
+      </c>
+      <c r="N608" t="n">
+        <v>1</v>
+      </c>
+      <c r="O608" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>THOMASCOOK.NS</t>
+        </is>
+      </c>
+      <c r="B609" s="2" t="n">
+        <v>40544</v>
+      </c>
+      <c r="C609" t="n">
+        <v>102</v>
+      </c>
+      <c r="D609" s="2" t="n">
+        <v>40179</v>
+      </c>
+      <c r="E609" t="n">
+        <v>90</v>
+      </c>
+      <c r="F609" t="n">
+        <v>28.5586051940918</v>
+      </c>
+      <c r="G609" s="2" t="n">
+        <v>40422</v>
+      </c>
+      <c r="H609" t="n">
+        <v>98</v>
+      </c>
+      <c r="I609" t="n">
+        <v>28.5041389465332</v>
+      </c>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K609" t="n">
+        <v>-0.006808280944824219</v>
+      </c>
+      <c r="L609" t="n">
+        <v>29.17135047912598</v>
+      </c>
+      <c r="M609" t="n">
+        <v>3</v>
+      </c>
+      <c r="N609" t="n">
+        <v>1</v>
+      </c>
+      <c r="O609" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>ADFFOODS.NS</t>
+        </is>
+      </c>
+      <c r="B610" s="2" t="n">
+        <v>43497</v>
+      </c>
+      <c r="C610" t="n">
+        <v>100</v>
+      </c>
+      <c r="D610" s="2" t="n">
+        <v>42948</v>
+      </c>
+      <c r="E610" t="n">
+        <v>82</v>
+      </c>
+      <c r="F610" t="n">
+        <v>38.79999923706055</v>
+      </c>
+      <c r="G610" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="H610" t="n">
+        <v>96</v>
+      </c>
+      <c r="I610" t="n">
+        <v>38.45999908447266</v>
+      </c>
+      <c r="J610" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K610" t="n">
+        <v>-0.02428572518484933</v>
+      </c>
+      <c r="L610" t="n">
+        <v>40.79142870221819</v>
+      </c>
+      <c r="M610" t="n">
+        <v>3</v>
+      </c>
+      <c r="N610" t="n">
+        <v>1</v>
+      </c>
+      <c r="O610" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>ADFFOODS.NS</t>
+        </is>
+      </c>
+      <c r="B611" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="C611" t="n">
+        <v>108</v>
+      </c>
+      <c r="D611" s="2" t="n">
+        <v>43586</v>
+      </c>
+      <c r="E611" t="n">
+        <v>103</v>
+      </c>
+      <c r="F611" t="n">
+        <v>61</v>
+      </c>
+      <c r="G611" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="H611" t="n">
+        <v>104</v>
+      </c>
+      <c r="I611" t="n">
+        <v>61</v>
+      </c>
+      <c r="J611" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K611" t="n">
+        <v>0</v>
+      </c>
+      <c r="L611" t="n">
+        <v>61</v>
+      </c>
+      <c r="M611" t="n">
+        <v>3</v>
+      </c>
+      <c r="N611" t="n">
+        <v>1</v>
+      </c>
+      <c r="O611" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>TANFACIND.BO</t>
+        </is>
+      </c>
+      <c r="B612" s="2" t="n">
+        <v>42036</v>
+      </c>
+      <c r="C612" t="n">
+        <v>157</v>
+      </c>
+      <c r="D612" s="2" t="n">
+        <v>41275</v>
+      </c>
+      <c r="E612" t="n">
+        <v>132</v>
+      </c>
+      <c r="F612" t="n">
+        <v>18.70000076293945</v>
+      </c>
+      <c r="G612" s="2" t="n">
+        <v>41913</v>
+      </c>
+      <c r="H612" t="n">
+        <v>153</v>
+      </c>
+      <c r="I612" t="n">
+        <v>18.70000076293945</v>
+      </c>
+      <c r="J612" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K612" t="n">
+        <v>0</v>
+      </c>
+      <c r="L612" t="n">
+        <v>18.70000076293945</v>
+      </c>
+      <c r="M612" t="n">
+        <v>3</v>
+      </c>
+      <c r="N612" t="n">
+        <v>1</v>
+      </c>
+      <c r="O612" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>THOMASCOOK.NS</t>
+        </is>
+      </c>
+      <c r="B613" s="2" t="n">
+        <v>41609</v>
+      </c>
+      <c r="C613" t="n">
+        <v>137</v>
+      </c>
+      <c r="D613" s="2" t="n">
+        <v>41334</v>
+      </c>
+      <c r="E613" t="n">
+        <v>128</v>
+      </c>
+      <c r="F613" t="n">
+        <v>17.26588249206543</v>
+      </c>
+      <c r="G613" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="H613" t="n">
+        <v>133</v>
+      </c>
+      <c r="I613" t="n">
+        <v>17.32034873962402</v>
+      </c>
+      <c r="J613" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K613" t="n">
+        <v>0.01089324951171875</v>
+      </c>
+      <c r="L613" t="n">
+        <v>15.87154655456543</v>
+      </c>
+      <c r="M613" t="n">
+        <v>3</v>
+      </c>
+      <c r="N613" t="n">
+        <v>1</v>
+      </c>
+      <c r="O613" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>ANDHRSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B614" s="2" t="n">
+        <v>41974</v>
+      </c>
+      <c r="C614" t="n">
+        <v>149</v>
+      </c>
+      <c r="D614" s="2" t="n">
+        <v>41153</v>
+      </c>
+      <c r="E614" t="n">
+        <v>122</v>
+      </c>
+      <c r="F614" t="n">
+        <v>32.15999984741211</v>
+      </c>
+      <c r="G614" s="2" t="n">
+        <v>41852</v>
+      </c>
+      <c r="H614" t="n">
+        <v>145</v>
+      </c>
+      <c r="I614" t="n">
+        <v>31.85000038146973</v>
+      </c>
+      <c r="J614" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K614" t="n">
+        <v>-0.01347823764966882</v>
+      </c>
+      <c r="L614" t="n">
+        <v>33.8043448406717</v>
+      </c>
+      <c r="M614" t="n">
+        <v>3</v>
+      </c>
+      <c r="N614" t="n">
+        <v>1</v>
+      </c>
+      <c r="O614" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>HERITGFOOD.NS</t>
+        </is>
+      </c>
+      <c r="B615" s="2" t="n">
+        <v>42736</v>
+      </c>
+      <c r="C615" t="n">
+        <v>174</v>
+      </c>
+      <c r="D615" s="2" t="n">
+        <v>42339</v>
+      </c>
+      <c r="E615" t="n">
+        <v>161</v>
+      </c>
+      <c r="F615" t="n">
+        <v>150.8659362792969</v>
+      </c>
+      <c r="G615" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="H615" t="n">
+        <v>162</v>
+      </c>
+      <c r="I615" t="n">
+        <v>150.8659362792969</v>
+      </c>
+      <c r="J615" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K615" t="n">
+        <v>0</v>
+      </c>
+      <c r="L615" t="n">
+        <v>150.8659362792969</v>
+      </c>
+      <c r="M615" t="n">
+        <v>3</v>
+      </c>
+      <c r="N615" t="n">
+        <v>1</v>
+      </c>
+      <c r="O615" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>KSCL.NS</t>
+        </is>
+      </c>
+      <c r="B616" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="C616" t="n">
+        <v>176</v>
+      </c>
+      <c r="D616" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="E616" t="n">
+        <v>160</v>
+      </c>
+      <c r="F616" t="n">
+        <v>476.5499877929688</v>
+      </c>
+      <c r="G616" s="2" t="n">
+        <v>44501</v>
+      </c>
+      <c r="H616" t="n">
+        <v>168</v>
+      </c>
+      <c r="I616" t="n">
+        <v>472.1000061035156</v>
+      </c>
+      <c r="J616" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K616" t="n">
+        <v>-0.5562477111816406</v>
+      </c>
+      <c r="L616" t="n">
+        <v>565.5496215820312</v>
+      </c>
+      <c r="M616" t="n">
+        <v>3</v>
+      </c>
+      <c r="N616" t="n">
+        <v>1</v>
+      </c>
+      <c r="O616" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>ANDHRSUGAR.NS</t>
+        </is>
+      </c>
+      <c r="B617" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="C617" t="n">
+        <v>167</v>
+      </c>
+      <c r="D617" s="2" t="n">
+        <v>41671</v>
+      </c>
+      <c r="E617" t="n">
+        <v>139</v>
+      </c>
+      <c r="F617" t="n">
+        <v>17.29999923706055</v>
+      </c>
+      <c r="G617" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="H617" t="n">
+        <v>157</v>
+      </c>
+      <c r="I617" t="n">
+        <v>17.23999977111816</v>
+      </c>
+      <c r="J617" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K617" t="n">
+        <v>-0.003333303663465712</v>
+      </c>
+      <c r="L617" t="n">
+        <v>17.76332844628228</v>
+      </c>
+      <c r="M617" t="n">
+        <v>3</v>
+      </c>
+      <c r="N617" t="n">
+        <v>1</v>
+      </c>
+      <c r="O617" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>ANDHRAPET.BO</t>
+        </is>
+      </c>
+      <c r="B618" s="2" t="n">
+        <v>40756</v>
+      </c>
+      <c r="C618" t="n">
+        <v>129</v>
+      </c>
+      <c r="D618" s="2" t="n">
+        <v>40483</v>
+      </c>
+      <c r="E618" t="n">
+        <v>120</v>
+      </c>
+      <c r="F618" t="n">
+        <v>35.15000152587891</v>
+      </c>
+      <c r="G618" s="2" t="n">
+        <v>40634</v>
+      </c>
+      <c r="H618" t="n">
+        <v>125</v>
+      </c>
+      <c r="I618" t="n">
+        <v>35.40000152587891</v>
+      </c>
+      <c r="J618" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K618" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L618" t="n">
+        <v>29.15000152587891</v>
+      </c>
+      <c r="M618" t="n">
+        <v>3</v>
+      </c>
+      <c r="N618" t="n">
+        <v>1</v>
+      </c>
+      <c r="O618" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>NIITLTD.NS</t>
+        </is>
+      </c>
+      <c r="B619" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C619" t="n">
+        <v>192</v>
+      </c>
+      <c r="D619" s="2" t="n">
+        <v>42339</v>
+      </c>
+      <c r="E619" t="n">
+        <v>167</v>
+      </c>
+      <c r="F619" t="n">
+        <v>107.4000015258789</v>
+      </c>
+      <c r="G619" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="H619" t="n">
+        <v>176</v>
+      </c>
+      <c r="I619" t="n">
+        <v>107.9499969482422</v>
+      </c>
+      <c r="J619" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K619" t="n">
+        <v>0.06111060248480903</v>
+      </c>
+      <c r="L619" t="n">
+        <v>97.1945309109158</v>
+      </c>
+      <c r="M619" t="n">
+        <v>3</v>
+      </c>
+      <c r="N619" t="n">
+        <v>1</v>
+      </c>
+      <c r="O619" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>THOMASCOOK.NS</t>
+        </is>
+      </c>
+      <c r="B620" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="C620" t="n">
+        <v>170</v>
+      </c>
+      <c r="D620" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="E620" t="n">
+        <v>157</v>
+      </c>
+      <c r="F620" t="n">
+        <v>60.1491813659668</v>
+      </c>
+      <c r="G620" s="2" t="n">
+        <v>42491</v>
+      </c>
+      <c r="H620" t="n">
+        <v>166</v>
+      </c>
+      <c r="I620" t="n">
+        <v>59.91315841674805</v>
+      </c>
+      <c r="J620" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K620" t="n">
+        <v>-0.02622477213541667</v>
+      </c>
+      <c r="L620" t="n">
+        <v>64.26647059122722</v>
+      </c>
+      <c r="M620" t="n">
+        <v>3</v>
+      </c>
+      <c r="N620" t="n">
+        <v>1</v>
+      </c>
+      <c r="O620" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>COROMANDEL.NS</t>
+        </is>
+      </c>
+      <c r="B621" s="2" t="n">
+        <v>43800</v>
+      </c>
+      <c r="C621" t="n">
+        <v>207</v>
+      </c>
+      <c r="D621" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="E621" t="n">
+        <v>193</v>
+      </c>
+      <c r="F621" t="n">
+        <v>339.1000061035156</v>
+      </c>
+      <c r="G621" s="2" t="n">
+        <v>43678</v>
+      </c>
+      <c r="H621" t="n">
+        <v>203</v>
+      </c>
+      <c r="I621" t="n">
+        <v>336.6000061035156</v>
+      </c>
+      <c r="J621" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K621" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="L621" t="n">
+        <v>387.3500061035156</v>
+      </c>
+      <c r="M621" t="n">
+        <v>3</v>
+      </c>
+      <c r="N621" t="n">
+        <v>1</v>
+      </c>
+      <c r="O621" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>COROMANDEL.NS</t>
+        </is>
+      </c>
+      <c r="B622" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="C622" t="n">
+        <v>235</v>
+      </c>
+      <c r="D622" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="E622" t="n">
+        <v>223</v>
+      </c>
+      <c r="F622" t="n">
+        <v>711</v>
+      </c>
+      <c r="G622" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="H622" t="n">
+        <v>231</v>
+      </c>
+      <c r="I622" t="n">
+        <v>709.3499755859375</v>
+      </c>
+      <c r="J622" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K622" t="n">
+        <v>-0.2062530517578125</v>
+      </c>
+      <c r="L622" t="n">
+        <v>756.9944305419922</v>
+      </c>
+      <c r="M622" t="n">
+        <v>3</v>
+      </c>
+      <c r="N622" t="n">
+        <v>1</v>
+      </c>
+      <c r="O622" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>HERITGFOOD.NS</t>
+        </is>
+      </c>
+      <c r="B623" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C623" t="n">
+        <v>256</v>
+      </c>
+      <c r="D623" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="E623" t="n">
+        <v>231</v>
+      </c>
+      <c r="F623" t="n">
+        <v>286.5184936523438</v>
+      </c>
+      <c r="G623" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="H623" t="n">
+        <v>252</v>
+      </c>
+      <c r="I623" t="n">
+        <v>287.3500061035156</v>
+      </c>
+      <c r="J623" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K623" t="n">
+        <v>0.03959583100818452</v>
+      </c>
+      <c r="L623" t="n">
+        <v>277.3718566894531</v>
+      </c>
+      <c r="M623" t="n">
+        <v>3</v>
+      </c>
+      <c r="N623" t="n">
+        <v>1</v>
+      </c>
+      <c r="O623" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>THOMASCOOK.NS</t>
+        </is>
+      </c>
+      <c r="B624" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="C624" t="n">
+        <v>243</v>
+      </c>
+      <c r="D624" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="E624" t="n">
+        <v>234</v>
+      </c>
+      <c r="F624" t="n">
+        <v>54</v>
+      </c>
+      <c r="G624" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="H624" t="n">
+        <v>239</v>
+      </c>
+      <c r="I624" t="n">
+        <v>54.20000076293945</v>
+      </c>
+      <c r="J624" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K624" t="n">
+        <v>0.04000015258789062</v>
+      </c>
+      <c r="L624" t="n">
+        <v>44.6399642944336</v>
+      </c>
+      <c r="M624" t="n">
+        <v>3</v>
+      </c>
+      <c r="N624" t="n">
+        <v>1</v>
+      </c>
+      <c r="O624" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>RPEL.BO</t>
+        </is>
+      </c>
+      <c r="B625" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="C625" t="n">
+        <v>52</v>
+      </c>
+      <c r="D625" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="E625" t="n">
+        <v>47</v>
+      </c>
+      <c r="F625" t="n">
+        <v>38</v>
+      </c>
+      <c r="G625" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="H625" t="n">
+        <v>48</v>
+      </c>
+      <c r="I625" t="n">
+        <v>38</v>
+      </c>
+      <c r="J625" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K625" t="n">
+        <v>0</v>
+      </c>
+      <c r="L625" t="n">
+        <v>38</v>
+      </c>
+      <c r="M625" t="n">
+        <v>3</v>
+      </c>
+      <c r="N625" t="n">
+        <v>1</v>
+      </c>
+      <c r="O625" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>ADORWELD.NS</t>
+        </is>
+      </c>
+      <c r="B626" s="2" t="n">
+        <v>39569</v>
+      </c>
+      <c r="C626" t="n">
+        <v>70</v>
+      </c>
+      <c r="D626" s="2" t="n">
+        <v>39264</v>
+      </c>
+      <c r="E626" t="n">
+        <v>60</v>
+      </c>
+      <c r="F626" t="n">
+        <v>318</v>
+      </c>
+      <c r="G626" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="H626" t="n">
+        <v>66</v>
+      </c>
+      <c r="I626" t="n">
+        <v>319.0499877929688</v>
+      </c>
+      <c r="J626" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K626" t="n">
+        <v>0.1749979654947917</v>
+      </c>
+      <c r="L626" t="n">
+        <v>307.5001220703125</v>
+      </c>
+      <c r="M626" t="n">
+        <v>3</v>
+      </c>
+      <c r="N626" t="n">
+        <v>1</v>
+      </c>
+      <c r="O626" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>SANJIVIN.BO</t>
+        </is>
+      </c>
+      <c r="B627" s="2" t="n">
+        <v>39295</v>
+      </c>
+      <c r="C627" t="n">
+        <v>64</v>
+      </c>
+      <c r="D627" s="2" t="n">
+        <v>38899</v>
+      </c>
+      <c r="E627" t="n">
+        <v>51</v>
+      </c>
+      <c r="F627" t="n">
+        <v>27.10000038146973</v>
+      </c>
+      <c r="G627" s="2" t="n">
+        <v>39173</v>
+      </c>
+      <c r="H627" t="n">
+        <v>60</v>
+      </c>
+      <c r="I627" t="n">
+        <v>27.35000038146973</v>
+      </c>
+      <c r="J627" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K627" t="n">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="L627" t="n">
+        <v>25.68333371480306</v>
+      </c>
+      <c r="M627" t="n">
+        <v>3</v>
+      </c>
+      <c r="N627" t="n">
+        <v>1</v>
+      </c>
+      <c r="O627" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>SANJIVIN.BO</t>
+        </is>
+      </c>
+      <c r="B628" s="2" t="n">
+        <v>40391</v>
+      </c>
+      <c r="C628" t="n">
+        <v>100</v>
+      </c>
+      <c r="D628" s="2" t="n">
+        <v>39417</v>
+      </c>
+      <c r="E628" t="n">
+        <v>68</v>
+      </c>
+      <c r="F628" t="n">
+        <v>62.90000152587891</v>
+      </c>
+      <c r="G628" s="2" t="n">
+        <v>40269</v>
+      </c>
+      <c r="H628" t="n">
+        <v>96</v>
+      </c>
+      <c r="I628" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="J628" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K628" t="n">
+        <v>0.02142851693289621</v>
+      </c>
+      <c r="L628" t="n">
+        <v>61.44286237444197</v>
+      </c>
+      <c r="M628" t="n">
+        <v>3</v>
+      </c>
+      <c r="N628" t="n">
+        <v>1</v>
+      </c>
+      <c r="O628" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>ADORWELD.NS</t>
+        </is>
+      </c>
+      <c r="B629" s="2" t="n">
+        <v>41365</v>
+      </c>
+      <c r="C629" t="n">
+        <v>129</v>
+      </c>
+      <c r="D629" s="2" t="n">
+        <v>41091</v>
+      </c>
+      <c r="E629" t="n">
+        <v>120</v>
+      </c>
+      <c r="F629" t="n">
+        <v>159.8000030517578</v>
+      </c>
+      <c r="G629" s="2" t="n">
+        <v>41244</v>
+      </c>
+      <c r="H629" t="n">
+        <v>125</v>
+      </c>
+      <c r="I629" t="n">
+        <v>160.4499969482422</v>
+      </c>
+      <c r="J629" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K629" t="n">
+        <v>0.129998779296875</v>
+      </c>
+      <c r="L629" t="n">
+        <v>144.2001495361328</v>
+      </c>
+      <c r="M629" t="n">
+        <v>3</v>
+      </c>
+      <c r="N629" t="n">
+        <v>1</v>
+      </c>
+      <c r="O629" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>GENESYS.NS</t>
+        </is>
+      </c>
+      <c r="B630" s="2" t="n">
+        <v>42125</v>
+      </c>
+      <c r="C630" t="n">
+        <v>147</v>
+      </c>
+      <c r="D630" s="2" t="n">
+        <v>41821</v>
+      </c>
+      <c r="E630" t="n">
+        <v>137</v>
+      </c>
+      <c r="F630" t="n">
+        <v>49.09999847412109</v>
+      </c>
+      <c r="G630" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="H630" t="n">
+        <v>143</v>
+      </c>
+      <c r="I630" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="J630" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K630" t="n">
+        <v>0.0666669209798177</v>
+      </c>
+      <c r="L630" t="n">
+        <v>39.96663029988607</v>
+      </c>
+      <c r="M630" t="n">
+        <v>3</v>
+      </c>
+      <c r="N630" t="n">
+        <v>1</v>
+      </c>
+      <c r="O630" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>SANJIVIN.BO</t>
+        </is>
+      </c>
+      <c r="B631" s="2" t="n">
+        <v>41760</v>
+      </c>
+      <c r="C631" t="n">
+        <v>145</v>
+      </c>
+      <c r="D631" s="2" t="n">
+        <v>41518</v>
+      </c>
+      <c r="E631" t="n">
+        <v>137</v>
+      </c>
+      <c r="F631" t="n">
+        <v>20.89999961853027</v>
+      </c>
+      <c r="G631" s="2" t="n">
+        <v>41640</v>
+      </c>
+      <c r="H631" t="n">
+        <v>141</v>
+      </c>
+      <c r="I631" t="n">
+        <v>21</v>
+      </c>
+      <c r="J631" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K631" t="n">
+        <v>0.02500009536743164</v>
+      </c>
+      <c r="L631" t="n">
+        <v>17.47498655319214</v>
+      </c>
+      <c r="M631" t="n">
+        <v>3</v>
+      </c>
+      <c r="N631" t="n">
+        <v>1</v>
+      </c>
+      <c r="O631" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>WALCHANNAG.NS</t>
+        </is>
+      </c>
+      <c r="B632" s="2" t="n">
+        <v>42979</v>
+      </c>
+      <c r="C632" t="n">
+        <v>182</v>
+      </c>
+      <c r="D632" s="2" t="n">
+        <v>42339</v>
+      </c>
+      <c r="E632" t="n">
+        <v>161</v>
+      </c>
+      <c r="F632" t="n">
+        <v>190</v>
+      </c>
+      <c r="G632" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="H632" t="n">
+        <v>178</v>
+      </c>
+      <c r="I632" t="n">
+        <v>191.8999938964844</v>
+      </c>
+      <c r="J632" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K632" t="n">
+        <v>0.1117643468520221</v>
+      </c>
+      <c r="L632" t="n">
+        <v>172.0059401568244</v>
+      </c>
+      <c r="M632" t="n">
+        <v>3</v>
+      </c>
+      <c r="N632" t="n">
+        <v>1</v>
+      </c>
+      <c r="O632" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>WALCHANNAG.NS</t>
+        </is>
+      </c>
+      <c r="B633" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="C633" t="n">
+        <v>185</v>
+      </c>
+      <c r="D633" s="2" t="n">
+        <v>42795</v>
+      </c>
+      <c r="E633" t="n">
+        <v>176</v>
+      </c>
+      <c r="F633" t="n">
+        <v>135.25</v>
+      </c>
+      <c r="G633" s="2" t="n">
+        <v>42948</v>
+      </c>
+      <c r="H633" t="n">
+        <v>181</v>
+      </c>
+      <c r="I633" t="n">
+        <v>134.6999969482422</v>
+      </c>
+      <c r="J633" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K633" t="n">
+        <v>-0.1100006103515625</v>
+      </c>
+      <c r="L633" t="n">
+        <v>154.610107421875</v>
+      </c>
+      <c r="M633" t="n">
+        <v>3</v>
+      </c>
+      <c r="N633" t="n">
+        <v>1</v>
+      </c>
+      <c r="O633" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>ADORWELD.NS</t>
+        </is>
+      </c>
+      <c r="B634" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="C634" t="n">
+        <v>243</v>
+      </c>
+      <c r="D634" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="E634" t="n">
+        <v>235</v>
+      </c>
+      <c r="F634" t="n">
+        <v>586.1500244140625</v>
+      </c>
+      <c r="G634" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="H634" t="n">
+        <v>239</v>
+      </c>
+      <c r="I634" t="n">
+        <v>589.5</v>
+      </c>
+      <c r="J634" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K634" t="n">
+        <v>0.837493896484375</v>
+      </c>
+      <c r="L634" t="n">
+        <v>389.3389587402344</v>
+      </c>
+      <c r="M634" t="n">
+        <v>3</v>
+      </c>
+      <c r="N634" t="n">
+        <v>1</v>
+      </c>
+      <c r="O634" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>HBLPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B635" s="2" t="n">
+        <v>41275</v>
+      </c>
+      <c r="C635" t="n">
+        <v>71</v>
+      </c>
+      <c r="D635" s="2" t="n">
+        <v>41030</v>
+      </c>
+      <c r="E635" t="n">
+        <v>63</v>
+      </c>
+      <c r="F635" t="n">
+        <v>13.85000038146973</v>
+      </c>
+      <c r="G635" s="2" t="n">
+        <v>41153</v>
+      </c>
+      <c r="H635" t="n">
+        <v>67</v>
+      </c>
+      <c r="I635" t="n">
+        <v>13.85000038146973</v>
+      </c>
+      <c r="J635" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K635" t="n">
+        <v>0</v>
+      </c>
+      <c r="L635" t="n">
+        <v>13.85000038146973</v>
+      </c>
+      <c r="M635" t="n">
+        <v>3</v>
+      </c>
+      <c r="N635" t="n">
+        <v>1</v>
+      </c>
+      <c r="O635" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>JSWENERGY.NS</t>
+        </is>
+      </c>
+      <c r="B636" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="C636" t="n">
+        <v>76</v>
+      </c>
+      <c r="D636" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="E636" t="n">
+        <v>66</v>
+      </c>
+      <c r="F636" t="n">
+        <v>59.40000152587891</v>
+      </c>
+      <c r="G636" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="H636" t="n">
+        <v>72</v>
+      </c>
+      <c r="I636" t="n">
+        <v>59</v>
+      </c>
+      <c r="J636" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K636" t="n">
+        <v>-0.0666669209798177</v>
+      </c>
+      <c r="L636" t="n">
+        <v>63.80001831054688</v>
+      </c>
+      <c r="M636" t="n">
+        <v>3</v>
+      </c>
+      <c r="N636" t="n">
+        <v>1</v>
+      </c>
+      <c r="O636" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>GRAVITA.NS</t>
+        </is>
+      </c>
+      <c r="B637" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="C637" t="n">
+        <v>102</v>
+      </c>
+      <c r="D637" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="E637" t="n">
+        <v>94</v>
+      </c>
+      <c r="F637" t="n">
+        <v>57.54999923706055</v>
+      </c>
+      <c r="G637" s="2" t="n">
+        <v>43497</v>
+      </c>
+      <c r="H637" t="n">
+        <v>98</v>
+      </c>
+      <c r="I637" t="n">
+        <v>57.65000152587891</v>
+      </c>
+      <c r="J637" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K637" t="n">
+        <v>0.02500057220458984</v>
+      </c>
+      <c r="L637" t="n">
+        <v>55.1999454498291</v>
+      </c>
+      <c r="M637" t="n">
+        <v>3</v>
+      </c>
+      <c r="N637" t="n">
+        <v>1</v>
+      </c>
+      <c r="O637" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>INDIAGLYCO.NS</t>
+        </is>
+      </c>
+      <c r="B638" s="2" t="n">
+        <v>41000</v>
+      </c>
+      <c r="C638" t="n">
+        <v>115</v>
+      </c>
+      <c r="D638" s="2" t="n">
+        <v>40664</v>
+      </c>
+      <c r="E638" t="n">
+        <v>104</v>
+      </c>
+      <c r="F638" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="G638" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="H638" t="n">
+        <v>111</v>
+      </c>
+      <c r="I638" t="n">
+        <v>104.0999984741211</v>
+      </c>
+      <c r="J638" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K638" t="n">
+        <v>0.08571406773158483</v>
+      </c>
+      <c r="L638" t="n">
+        <v>94.58573695591518</v>
+      </c>
+      <c r="M638" t="n">
+        <v>3</v>
+      </c>
+      <c r="N638" t="n">
+        <v>1</v>
+      </c>
+      <c r="O638" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>XPROINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B639" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="C639" t="n">
+        <v>130</v>
+      </c>
+      <c r="D639" s="2" t="n">
+        <v>41913</v>
+      </c>
+      <c r="E639" t="n">
+        <v>125</v>
+      </c>
+      <c r="F639" t="n">
+        <v>29.96666526794434</v>
+      </c>
+      <c r="G639" s="2" t="n">
+        <v>41944</v>
+      </c>
+      <c r="H639" t="n">
+        <v>126</v>
+      </c>
+      <c r="I639" t="n">
+        <v>29.96666526794434</v>
+      </c>
+      <c r="J639" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K639" t="n">
+        <v>0</v>
+      </c>
+      <c r="L639" t="n">
+        <v>29.96666526794434</v>
+      </c>
+      <c r="M639" t="n">
+        <v>3</v>
+      </c>
+      <c r="N639" t="n">
+        <v>1</v>
+      </c>
+      <c r="O639" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>HFCL.NS</t>
+        </is>
+      </c>
+      <c r="B640" s="2" t="n">
+        <v>41153</v>
+      </c>
+      <c r="C640" t="n">
+        <v>120</v>
+      </c>
+      <c r="D640" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="E640" t="n">
+        <v>111</v>
+      </c>
+      <c r="F640" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="G640" s="2" t="n">
+        <v>41030</v>
+      </c>
+      <c r="H640" t="n">
+        <v>116</v>
+      </c>
+      <c r="I640" t="n">
+        <v>10.35000038146973</v>
+      </c>
+      <c r="J640" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K640" t="n">
+        <v>0.02000007629394531</v>
+      </c>
+      <c r="L640" t="n">
+        <v>8.029991531372071</v>
+      </c>
+      <c r="M640" t="n">
+        <v>3</v>
+      </c>
+      <c r="N640" t="n">
+        <v>1</v>
+      </c>
+      <c r="O640" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>PATANJALI.NS</t>
+        </is>
+      </c>
+      <c r="B641" s="2" t="n">
+        <v>40817</v>
+      </c>
+      <c r="C641" t="n">
+        <v>111</v>
+      </c>
+      <c r="D641" s="2" t="n">
+        <v>40513</v>
+      </c>
+      <c r="E641" t="n">
+        <v>101</v>
+      </c>
+      <c r="F641" t="n">
+        <v>7985</v>
+      </c>
+      <c r="G641" s="2" t="n">
+        <v>40695</v>
+      </c>
+      <c r="H641" t="n">
+        <v>107</v>
+      </c>
+      <c r="I641" t="n">
+        <v>8005</v>
+      </c>
+      <c r="J641" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K641" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="L641" t="n">
+        <v>7648.333333333333</v>
+      </c>
+      <c r="M641" t="n">
+        <v>3</v>
+      </c>
+      <c r="N641" t="n">
+        <v>1</v>
+      </c>
+      <c r="O641" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>INDIAGLYCO.NS</t>
+        </is>
+      </c>
+      <c r="B642" s="2" t="n">
+        <v>41821</v>
+      </c>
+      <c r="C642" t="n">
+        <v>142</v>
+      </c>
+      <c r="D642" s="2" t="n">
+        <v>41579</v>
+      </c>
+      <c r="E642" t="n">
+        <v>134</v>
+      </c>
+      <c r="F642" t="n">
+        <v>84.19999694824219</v>
+      </c>
+      <c r="G642" s="2" t="n">
+        <v>41699</v>
+      </c>
+      <c r="H642" t="n">
+        <v>138</v>
+      </c>
+      <c r="I642" t="n">
+        <v>84.19999694824219</v>
+      </c>
+      <c r="J642" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K642" t="n">
+        <v>0</v>
+      </c>
+      <c r="L642" t="n">
+        <v>84.19999694824219</v>
+      </c>
+      <c r="M642" t="n">
+        <v>3</v>
+      </c>
+      <c r="N642" t="n">
+        <v>1</v>
+      </c>
+      <c r="O642" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>PATANJALI.NS</t>
+        </is>
+      </c>
+      <c r="B643" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="C643" t="n">
+        <v>185</v>
+      </c>
+      <c r="D643" s="2" t="n">
+        <v>42705</v>
+      </c>
+      <c r="E643" t="n">
+        <v>173</v>
+      </c>
+      <c r="F643" t="n">
+        <v>1860</v>
+      </c>
+      <c r="G643" s="2" t="n">
+        <v>42948</v>
+      </c>
+      <c r="H643" t="n">
+        <v>181</v>
+      </c>
+      <c r="I643" t="n">
+        <v>1845</v>
+      </c>
+      <c r="J643" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K643" t="n">
+        <v>-1.875</v>
+      </c>
+      <c r="L643" t="n">
+        <v>2184.375</v>
+      </c>
+      <c r="M643" t="n">
+        <v>3</v>
+      </c>
+      <c r="N643" t="n">
+        <v>1</v>
+      </c>
+      <c r="O643" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>PATANJALI.NS</t>
+        </is>
+      </c>
+      <c r="B644" s="2" t="n">
+        <v>43160</v>
+      </c>
+      <c r="C644" t="n">
+        <v>188</v>
+      </c>
+      <c r="D644" s="2" t="n">
+        <v>42430</v>
+      </c>
+      <c r="E644" t="n">
+        <v>164</v>
+      </c>
+      <c r="F644" t="n">
+        <v>3355</v>
+      </c>
+      <c r="G644" s="2" t="n">
+        <v>43040</v>
+      </c>
+      <c r="H644" t="n">
+        <v>184</v>
+      </c>
+      <c r="I644" t="n">
+        <v>3375</v>
+      </c>
+      <c r="J644" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K644" t="n">
+        <v>1</v>
+      </c>
+      <c r="L644" t="n">
+        <v>3191</v>
+      </c>
+      <c r="M644" t="n">
+        <v>3</v>
+      </c>
+      <c r="N644" t="n">
+        <v>1</v>
+      </c>
+      <c r="O644" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>INDIAGLYCO.NS</t>
+        </is>
+      </c>
+      <c r="B645" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="C645" t="n">
+        <v>261</v>
+      </c>
+      <c r="D645" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E645" t="n">
+        <v>240</v>
+      </c>
+      <c r="F645" t="n">
+        <v>977.7000122070312</v>
+      </c>
+      <c r="G645" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="H645" t="n">
+        <v>257</v>
+      </c>
+      <c r="I645" t="n">
+        <v>976</v>
+      </c>
+      <c r="J645" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K645" t="n">
+        <v>-0.1000007180606618</v>
+      </c>
+      <c r="L645" t="n">
+        <v>1001.70018454159</v>
+      </c>
+      <c r="M645" t="n">
+        <v>3</v>
+      </c>
+      <c r="N645" t="n">
+        <v>1</v>
+      </c>
+      <c r="O645" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1mo/two_line_alerts_1mo_backup.xlsx
+++ b/excel/1mo/two_line_alerts_1mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O645"/>
+  <dimension ref="A1:O646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33358,6 +33358,57 @@
         <v>2</v>
       </c>
     </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B646" s="2" t="n">
+        <v>40603</v>
+      </c>
+      <c r="C646" t="n">
+        <v>164</v>
+      </c>
+      <c r="D646" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="E646" t="n">
+        <v>126</v>
+      </c>
+      <c r="F646" t="n">
+        <v>21206.76953125</v>
+      </c>
+      <c r="G646" s="2" t="n">
+        <v>40483</v>
+      </c>
+      <c r="H646" t="n">
+        <v>160</v>
+      </c>
+      <c r="I646" t="n">
+        <v>21108.640625</v>
+      </c>
+      <c r="J646" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K646" t="n">
+        <v>-2.886144301470588</v>
+      </c>
+      <c r="L646" t="n">
+        <v>21570.42371323529</v>
+      </c>
+      <c r="M646" t="n">
+        <v>3</v>
+      </c>
+      <c r="N646" t="n">
+        <v>1</v>
+      </c>
+      <c r="O646" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1mo/two_line_alerts_1mo_backup.xlsx
+++ b/excel/1mo/two_line_alerts_1mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O646"/>
+  <dimension ref="A1:O647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33409,6 +33409,57 @@
         <v>2</v>
       </c>
     </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B647" s="2" t="n">
+        <v>41395</v>
+      </c>
+      <c r="C647" t="n">
+        <v>67</v>
+      </c>
+      <c r="D647" s="2" t="n">
+        <v>40940</v>
+      </c>
+      <c r="E647" t="n">
+        <v>52</v>
+      </c>
+      <c r="F647" t="n">
+        <v>2481.60009765625</v>
+      </c>
+      <c r="G647" s="2" t="n">
+        <v>41275</v>
+      </c>
+      <c r="H647" t="n">
+        <v>63</v>
+      </c>
+      <c r="I647" t="n">
+        <v>2486.449951171875</v>
+      </c>
+      <c r="J647" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K647" t="n">
+        <v>0.4408957741477273</v>
+      </c>
+      <c r="L647" t="n">
+        <v>2458.673517400568</v>
+      </c>
+      <c r="M647" t="n">
+        <v>3</v>
+      </c>
+      <c r="N647" t="n">
+        <v>1</v>
+      </c>
+      <c r="O647" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1mo/two_line_alerts_1mo_backup.xlsx
+++ b/excel/1mo/two_line_alerts_1mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O647"/>
+  <dimension ref="A1:O652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33460,6 +33460,261 @@
         <v>2</v>
       </c>
     </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>AARTIIND.NS</t>
+        </is>
+      </c>
+      <c r="B648" s="2" t="n">
+        <v>39661</v>
+      </c>
+      <c r="C648" t="n">
+        <v>73</v>
+      </c>
+      <c r="D648" s="2" t="n">
+        <v>39508</v>
+      </c>
+      <c r="E648" t="n">
+        <v>68</v>
+      </c>
+      <c r="F648" t="n">
+        <v>6.390748023986816</v>
+      </c>
+      <c r="G648" s="2" t="n">
+        <v>39539</v>
+      </c>
+      <c r="H648" t="n">
+        <v>69</v>
+      </c>
+      <c r="I648" t="n">
+        <v>6.390748023986816</v>
+      </c>
+      <c r="J648" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K648" t="n">
+        <v>0</v>
+      </c>
+      <c r="L648" t="n">
+        <v>6.390748023986816</v>
+      </c>
+      <c r="M648" t="n">
+        <v>3</v>
+      </c>
+      <c r="N648" t="n">
+        <v>1</v>
+      </c>
+      <c r="O648" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>AARTIIND.NS</t>
+        </is>
+      </c>
+      <c r="B649" s="2" t="n">
+        <v>39965</v>
+      </c>
+      <c r="C649" t="n">
+        <v>83</v>
+      </c>
+      <c r="D649" s="2" t="n">
+        <v>39508</v>
+      </c>
+      <c r="E649" t="n">
+        <v>68</v>
+      </c>
+      <c r="F649" t="n">
+        <v>6.390748023986816</v>
+      </c>
+      <c r="G649" s="2" t="n">
+        <v>39845</v>
+      </c>
+      <c r="H649" t="n">
+        <v>79</v>
+      </c>
+      <c r="I649" t="n">
+        <v>6.342148780822754</v>
+      </c>
+      <c r="J649" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K649" t="n">
+        <v>-0.004418113014914773</v>
+      </c>
+      <c r="L649" t="n">
+        <v>6.691179709001021</v>
+      </c>
+      <c r="M649" t="n">
+        <v>3</v>
+      </c>
+      <c r="N649" t="n">
+        <v>1</v>
+      </c>
+      <c r="O649" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>AARTIIND.NS</t>
+        </is>
+      </c>
+      <c r="B650" s="2" t="n">
+        <v>39965</v>
+      </c>
+      <c r="C650" t="n">
+        <v>83</v>
+      </c>
+      <c r="D650" s="2" t="n">
+        <v>39539</v>
+      </c>
+      <c r="E650" t="n">
+        <v>69</v>
+      </c>
+      <c r="F650" t="n">
+        <v>6.390748023986816</v>
+      </c>
+      <c r="G650" s="2" t="n">
+        <v>39845</v>
+      </c>
+      <c r="H650" t="n">
+        <v>79</v>
+      </c>
+      <c r="I650" t="n">
+        <v>6.342148780822754</v>
+      </c>
+      <c r="J650" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K650" t="n">
+        <v>-0.00485992431640625</v>
+      </c>
+      <c r="L650" t="n">
+        <v>6.726082801818848</v>
+      </c>
+      <c r="M650" t="n">
+        <v>3</v>
+      </c>
+      <c r="N650" t="n">
+        <v>1</v>
+      </c>
+      <c r="O650" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>AARTIIND.NS</t>
+        </is>
+      </c>
+      <c r="B651" s="2" t="n">
+        <v>39995</v>
+      </c>
+      <c r="C651" t="n">
+        <v>84</v>
+      </c>
+      <c r="D651" s="2" t="n">
+        <v>39539</v>
+      </c>
+      <c r="E651" t="n">
+        <v>69</v>
+      </c>
+      <c r="F651" t="n">
+        <v>6.390748023986816</v>
+      </c>
+      <c r="G651" s="2" t="n">
+        <v>39873</v>
+      </c>
+      <c r="H651" t="n">
+        <v>80</v>
+      </c>
+      <c r="I651" t="n">
+        <v>6.342148780822754</v>
+      </c>
+      <c r="J651" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K651" t="n">
+        <v>-0.004418113014914773</v>
+      </c>
+      <c r="L651" t="n">
+        <v>6.695597822015936</v>
+      </c>
+      <c r="M651" t="n">
+        <v>3</v>
+      </c>
+      <c r="N651" t="n">
+        <v>1</v>
+      </c>
+      <c r="O651" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>AARTIIND.NS</t>
+        </is>
+      </c>
+      <c r="B652" s="2" t="n">
+        <v>39995</v>
+      </c>
+      <c r="C652" t="n">
+        <v>84</v>
+      </c>
+      <c r="D652" s="2" t="n">
+        <v>39845</v>
+      </c>
+      <c r="E652" t="n">
+        <v>79</v>
+      </c>
+      <c r="F652" t="n">
+        <v>6.342148780822754</v>
+      </c>
+      <c r="G652" s="2" t="n">
+        <v>39873</v>
+      </c>
+      <c r="H652" t="n">
+        <v>80</v>
+      </c>
+      <c r="I652" t="n">
+        <v>6.342148780822754</v>
+      </c>
+      <c r="J652" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K652" t="n">
+        <v>0</v>
+      </c>
+      <c r="L652" t="n">
+        <v>6.342148780822754</v>
+      </c>
+      <c r="M652" t="n">
+        <v>3</v>
+      </c>
+      <c r="N652" t="n">
+        <v>1</v>
+      </c>
+      <c r="O652" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1mo/two_line_alerts_1mo_backup.xlsx
+++ b/excel/1mo/two_line_alerts_1mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O652"/>
+  <dimension ref="A1:O664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33715,6 +33715,618 @@
         <v>2</v>
       </c>
     </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>BATAINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B653" s="2" t="n">
+        <v>39417</v>
+      </c>
+      <c r="C653" t="n">
+        <v>65</v>
+      </c>
+      <c r="D653" s="2" t="n">
+        <v>38869</v>
+      </c>
+      <c r="E653" t="n">
+        <v>47</v>
+      </c>
+      <c r="F653" t="n">
+        <v>59.47750667254579</v>
+      </c>
+      <c r="G653" s="2" t="n">
+        <v>39295</v>
+      </c>
+      <c r="H653" t="n">
+        <v>61</v>
+      </c>
+      <c r="I653" t="n">
+        <v>59.69378497807872</v>
+      </c>
+      <c r="J653" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K653" t="n">
+        <v>0.01544845039520989</v>
+      </c>
+      <c r="L653" t="n">
+        <v>58.75142950397092</v>
+      </c>
+      <c r="M653" t="n">
+        <v>3</v>
+      </c>
+      <c r="N653" t="n">
+        <v>1</v>
+      </c>
+      <c r="O653" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>MANAPPURAM.NS</t>
+        </is>
+      </c>
+      <c r="B654" s="2" t="n">
+        <v>42917</v>
+      </c>
+      <c r="C654" t="n">
+        <v>84</v>
+      </c>
+      <c r="D654" s="2" t="n">
+        <v>42644</v>
+      </c>
+      <c r="E654" t="n">
+        <v>75</v>
+      </c>
+      <c r="F654" t="n">
+        <v>90.23010662436555</v>
+      </c>
+      <c r="G654" s="2" t="n">
+        <v>42795</v>
+      </c>
+      <c r="H654" t="n">
+        <v>80</v>
+      </c>
+      <c r="I654" t="n">
+        <v>90.57228138015006</v>
+      </c>
+      <c r="J654" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K654" t="n">
+        <v>0.06843495115690246</v>
+      </c>
+      <c r="L654" t="n">
+        <v>85.09748528759786</v>
+      </c>
+      <c r="M654" t="n">
+        <v>3</v>
+      </c>
+      <c r="N654" t="n">
+        <v>1</v>
+      </c>
+      <c r="O654" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>GODREJPROP.NS</t>
+        </is>
+      </c>
+      <c r="B655" s="2" t="n">
+        <v>43344</v>
+      </c>
+      <c r="C655" t="n">
+        <v>103</v>
+      </c>
+      <c r="D655" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="E655" t="n">
+        <v>95</v>
+      </c>
+      <c r="F655" t="n">
+        <v>911.8499755859375</v>
+      </c>
+      <c r="G655" s="2" t="n">
+        <v>43221</v>
+      </c>
+      <c r="H655" t="n">
+        <v>99</v>
+      </c>
+      <c r="I655" t="n">
+        <v>920</v>
+      </c>
+      <c r="J655" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K655" t="n">
+        <v>2.037506103515625</v>
+      </c>
+      <c r="L655" t="n">
+        <v>718.2868957519531</v>
+      </c>
+      <c r="M655" t="n">
+        <v>3</v>
+      </c>
+      <c r="N655" t="n">
+        <v>1</v>
+      </c>
+      <c r="O655" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>GMRAIRPORT.NS</t>
+        </is>
+      </c>
+      <c r="B656" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C656" t="n">
+        <v>112</v>
+      </c>
+      <c r="D656" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="E656" t="n">
+        <v>107</v>
+      </c>
+      <c r="F656" t="n">
+        <v>8.829098701477051</v>
+      </c>
+      <c r="G656" s="2" t="n">
+        <v>42248</v>
+      </c>
+      <c r="H656" t="n">
+        <v>108</v>
+      </c>
+      <c r="I656" t="n">
+        <v>8.829098701477051</v>
+      </c>
+      <c r="J656" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K656" t="n">
+        <v>0</v>
+      </c>
+      <c r="L656" t="n">
+        <v>8.829098701477051</v>
+      </c>
+      <c r="M656" t="n">
+        <v>3</v>
+      </c>
+      <c r="N656" t="n">
+        <v>1</v>
+      </c>
+      <c r="O656" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>GMRAIRPORT.NS</t>
+        </is>
+      </c>
+      <c r="B657" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="C657" t="n">
+        <v>117</v>
+      </c>
+      <c r="D657" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="E657" t="n">
+        <v>107</v>
+      </c>
+      <c r="F657" t="n">
+        <v>8.829098701477051</v>
+      </c>
+      <c r="G657" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="H657" t="n">
+        <v>113</v>
+      </c>
+      <c r="I657" t="n">
+        <v>8.784051895141602</v>
+      </c>
+      <c r="J657" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K657" t="n">
+        <v>-0.007507801055908203</v>
+      </c>
+      <c r="L657" t="n">
+        <v>9.632433414459229</v>
+      </c>
+      <c r="M657" t="n">
+        <v>3</v>
+      </c>
+      <c r="N657" t="n">
+        <v>1</v>
+      </c>
+      <c r="O657" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>GMRAIRPORT.NS</t>
+        </is>
+      </c>
+      <c r="B658" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="C658" t="n">
+        <v>117</v>
+      </c>
+      <c r="D658" s="2" t="n">
+        <v>42248</v>
+      </c>
+      <c r="E658" t="n">
+        <v>108</v>
+      </c>
+      <c r="F658" t="n">
+        <v>8.829098701477051</v>
+      </c>
+      <c r="G658" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="H658" t="n">
+        <v>113</v>
+      </c>
+      <c r="I658" t="n">
+        <v>8.784051895141602</v>
+      </c>
+      <c r="J658" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K658" t="n">
+        <v>-0.009009361267089844</v>
+      </c>
+      <c r="L658" t="n">
+        <v>9.802109718322754</v>
+      </c>
+      <c r="M658" t="n">
+        <v>3</v>
+      </c>
+      <c r="N658" t="n">
+        <v>1</v>
+      </c>
+      <c r="O658" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>BATAINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B659" s="2" t="n">
+        <v>42705</v>
+      </c>
+      <c r="C659" t="n">
+        <v>173</v>
+      </c>
+      <c r="D659" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="E659" t="n">
+        <v>157</v>
+      </c>
+      <c r="F659" t="n">
+        <v>581.4596786134197</v>
+      </c>
+      <c r="G659" s="2" t="n">
+        <v>42583</v>
+      </c>
+      <c r="H659" t="n">
+        <v>169</v>
+      </c>
+      <c r="I659" t="n">
+        <v>577.2650448407002</v>
+      </c>
+      <c r="J659" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K659" t="n">
+        <v>-0.3495528143932916</v>
+      </c>
+      <c r="L659" t="n">
+        <v>636.3394704731664</v>
+      </c>
+      <c r="M659" t="n">
+        <v>3</v>
+      </c>
+      <c r="N659" t="n">
+        <v>1</v>
+      </c>
+      <c r="O659" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>MANAPPURAM.NS</t>
+        </is>
+      </c>
+      <c r="B660" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="C660" t="n">
+        <v>131</v>
+      </c>
+      <c r="D660" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="E660" t="n">
+        <v>120</v>
+      </c>
+      <c r="F660" t="n">
+        <v>170.1301489508114</v>
+      </c>
+      <c r="G660" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="H660" t="n">
+        <v>127</v>
+      </c>
+      <c r="I660" t="n">
+        <v>168.705578165982</v>
+      </c>
+      <c r="J660" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K660" t="n">
+        <v>-0.2035101121184937</v>
+      </c>
+      <c r="L660" t="n">
+        <v>194.5513624050307</v>
+      </c>
+      <c r="M660" t="n">
+        <v>3</v>
+      </c>
+      <c r="N660" t="n">
+        <v>1</v>
+      </c>
+      <c r="O660" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>LICHSGFIN.NS</t>
+        </is>
+      </c>
+      <c r="B661" s="2" t="n">
+        <v>42461</v>
+      </c>
+      <c r="C661" t="n">
+        <v>165</v>
+      </c>
+      <c r="D661" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="E661" t="n">
+        <v>157</v>
+      </c>
+      <c r="F661" t="n">
+        <v>431.6130438757089</v>
+      </c>
+      <c r="G661" s="2" t="n">
+        <v>42339</v>
+      </c>
+      <c r="H661" t="n">
+        <v>161</v>
+      </c>
+      <c r="I661" t="n">
+        <v>428.005344062932</v>
+      </c>
+      <c r="J661" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K661" t="n">
+        <v>-0.9019249531942393</v>
+      </c>
+      <c r="L661" t="n">
+        <v>573.2152615272045</v>
+      </c>
+      <c r="M661" t="n">
+        <v>3</v>
+      </c>
+      <c r="N661" t="n">
+        <v>1</v>
+      </c>
+      <c r="O661" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>LICHSGFIN.NS</t>
+        </is>
+      </c>
+      <c r="B662" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="C662" t="n">
+        <v>167</v>
+      </c>
+      <c r="D662" s="2" t="n">
+        <v>42156</v>
+      </c>
+      <c r="E662" t="n">
+        <v>155</v>
+      </c>
+      <c r="F662" t="n">
+        <v>320.6515052936053</v>
+      </c>
+      <c r="G662" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="H662" t="n">
+        <v>163</v>
+      </c>
+      <c r="I662" t="n">
+        <v>323.2496289079498</v>
+      </c>
+      <c r="J662" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K662" t="n">
+        <v>0.3247654517930698</v>
+      </c>
+      <c r="L662" t="n">
+        <v>270.3128602656794</v>
+      </c>
+      <c r="M662" t="n">
+        <v>3</v>
+      </c>
+      <c r="N662" t="n">
+        <v>1</v>
+      </c>
+      <c r="O662" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>GMRAIRPORT.NS</t>
+        </is>
+      </c>
+      <c r="B663" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="C663" t="n">
+        <v>165</v>
+      </c>
+      <c r="D663" s="2" t="n">
+        <v>43344</v>
+      </c>
+      <c r="E663" t="n">
+        <v>144</v>
+      </c>
+      <c r="F663" t="n">
+        <v>19.36996269226074</v>
+      </c>
+      <c r="G663" s="2" t="n">
+        <v>43525</v>
+      </c>
+      <c r="H663" t="n">
+        <v>150</v>
+      </c>
+      <c r="I663" t="n">
+        <v>19.23482322692871</v>
+      </c>
+      <c r="J663" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K663" t="n">
+        <v>-0.02252324422200521</v>
+      </c>
+      <c r="L663" t="n">
+        <v>22.61330986022949</v>
+      </c>
+      <c r="M663" t="n">
+        <v>3</v>
+      </c>
+      <c r="N663" t="n">
+        <v>1</v>
+      </c>
+      <c r="O663" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>GMRAIRPORT.NS</t>
+        </is>
+      </c>
+      <c r="B664" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="C664" t="n">
+        <v>166</v>
+      </c>
+      <c r="D664" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="E664" t="n">
+        <v>153</v>
+      </c>
+      <c r="F664" t="n">
+        <v>12.65804481506348</v>
+      </c>
+      <c r="G664" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="H664" t="n">
+        <v>162</v>
+      </c>
+      <c r="I664" t="n">
+        <v>12.70309066772461</v>
+      </c>
+      <c r="J664" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K664" t="n">
+        <v>0.005005094740125868</v>
+      </c>
+      <c r="L664" t="n">
+        <v>11.89226531982422</v>
+      </c>
+      <c r="M664" t="n">
+        <v>3</v>
+      </c>
+      <c r="N664" t="n">
+        <v>1</v>
+      </c>
+      <c r="O664" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1mo/two_line_alerts_1mo_backup.xlsx
+++ b/excel/1mo/two_line_alerts_1mo_backup.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O664"/>
+  <dimension ref="A1:O679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34327,6 +34327,771 @@
         <v>2</v>
       </c>
     </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>EICHERMOT.NS</t>
+        </is>
+      </c>
+      <c r="B665" s="2" t="n">
+        <v>39052</v>
+      </c>
+      <c r="C665" t="n">
+        <v>131</v>
+      </c>
+      <c r="D665" s="2" t="n">
+        <v>38078</v>
+      </c>
+      <c r="E665" t="n">
+        <v>99</v>
+      </c>
+      <c r="F665" t="n">
+        <v>17.78000068664551</v>
+      </c>
+      <c r="G665" s="2" t="n">
+        <v>38930</v>
+      </c>
+      <c r="H665" t="n">
+        <v>127</v>
+      </c>
+      <c r="I665" t="n">
+        <v>17.63999938964844</v>
+      </c>
+      <c r="J665" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K665" t="n">
+        <v>-0.00500004632132394</v>
+      </c>
+      <c r="L665" t="n">
+        <v>18.27500527245658</v>
+      </c>
+      <c r="M665" t="n">
+        <v>3</v>
+      </c>
+      <c r="N665" t="n">
+        <v>1</v>
+      </c>
+      <c r="O665" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>M&amp;M.NS</t>
+        </is>
+      </c>
+      <c r="B666" s="2" t="n">
+        <v>41153</v>
+      </c>
+      <c r="C666" t="n">
+        <v>200</v>
+      </c>
+      <c r="D666" s="2" t="n">
+        <v>40695</v>
+      </c>
+      <c r="E666" t="n">
+        <v>185</v>
+      </c>
+      <c r="F666" t="n">
+        <v>308.3500061035156</v>
+      </c>
+      <c r="G666" s="2" t="n">
+        <v>41030</v>
+      </c>
+      <c r="H666" t="n">
+        <v>196</v>
+      </c>
+      <c r="I666" t="n">
+        <v>310.5499877929688</v>
+      </c>
+      <c r="J666" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K666" t="n">
+        <v>0.1999983354048347</v>
+      </c>
+      <c r="L666" t="n">
+        <v>271.3503140536212</v>
+      </c>
+      <c r="M666" t="n">
+        <v>3</v>
+      </c>
+      <c r="N666" t="n">
+        <v>1</v>
+      </c>
+      <c r="O666" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>BAJFINANCE.NS</t>
+        </is>
+      </c>
+      <c r="B667" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="C667" t="n">
+        <v>270</v>
+      </c>
+      <c r="D667" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E667" t="n">
+        <v>242</v>
+      </c>
+      <c r="F667" t="n">
+        <v>7778</v>
+      </c>
+      <c r="G667" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="H667" t="n">
+        <v>266</v>
+      </c>
+      <c r="I667" t="n">
+        <v>7824</v>
+      </c>
+      <c r="J667" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K667" t="n">
+        <v>1.916666666666667</v>
+      </c>
+      <c r="L667" t="n">
+        <v>7314.166666666667</v>
+      </c>
+      <c r="M667" t="n">
+        <v>3</v>
+      </c>
+      <c r="N667" t="n">
+        <v>1</v>
+      </c>
+      <c r="O667" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>ASIANPAINT.NS</t>
+        </is>
+      </c>
+      <c r="B668" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="C668" t="n">
+        <v>266</v>
+      </c>
+      <c r="D668" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="E668" t="n">
+        <v>246</v>
+      </c>
+      <c r="F668" t="n">
+        <v>2685.85009765625</v>
+      </c>
+      <c r="G668" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="H668" t="n">
+        <v>262</v>
+      </c>
+      <c r="I668" t="n">
+        <v>2670.10009765625</v>
+      </c>
+      <c r="J668" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K668" t="n">
+        <v>-0.984375</v>
+      </c>
+      <c r="L668" t="n">
+        <v>2928.00634765625</v>
+      </c>
+      <c r="M668" t="n">
+        <v>3</v>
+      </c>
+      <c r="N668" t="n">
+        <v>1</v>
+      </c>
+      <c r="O668" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN.NS</t>
+        </is>
+      </c>
+      <c r="B669" s="2" t="n">
+        <v>41518</v>
+      </c>
+      <c r="C669" t="n">
+        <v>134</v>
+      </c>
+      <c r="D669" s="2" t="n">
+        <v>40634</v>
+      </c>
+      <c r="E669" t="n">
+        <v>105</v>
+      </c>
+      <c r="F669" t="n">
+        <v>827.9078369140625</v>
+      </c>
+      <c r="G669" s="2" t="n">
+        <v>41395</v>
+      </c>
+      <c r="H669" t="n">
+        <v>130</v>
+      </c>
+      <c r="I669" t="n">
+        <v>821.0873413085938</v>
+      </c>
+      <c r="J669" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K669" t="n">
+        <v>-0.27281982421875</v>
+      </c>
+      <c r="L669" t="n">
+        <v>856.5539184570313</v>
+      </c>
+      <c r="M669" t="n">
+        <v>3</v>
+      </c>
+      <c r="N669" t="n">
+        <v>1</v>
+      </c>
+      <c r="O669" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>BERGEPAINT.NS</t>
+        </is>
+      </c>
+      <c r="B670" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C670" t="n">
+        <v>267</v>
+      </c>
+      <c r="D670" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="E670" t="n">
+        <v>247</v>
+      </c>
+      <c r="F670" t="n">
+        <v>439.2916564941406</v>
+      </c>
+      <c r="G670" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="H670" t="n">
+        <v>263</v>
+      </c>
+      <c r="I670" t="n">
+        <v>439</v>
+      </c>
+      <c r="J670" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K670" t="n">
+        <v>-0.01822853088378906</v>
+      </c>
+      <c r="L670" t="n">
+        <v>443.7941036224365</v>
+      </c>
+      <c r="M670" t="n">
+        <v>3</v>
+      </c>
+      <c r="N670" t="n">
+        <v>1</v>
+      </c>
+      <c r="O670" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>TRENT.NS</t>
+        </is>
+      </c>
+      <c r="B671" s="2" t="n">
+        <v>39264</v>
+      </c>
+      <c r="C671" t="n">
+        <v>60</v>
+      </c>
+      <c r="D671" s="2" t="n">
+        <v>38869</v>
+      </c>
+      <c r="E671" t="n">
+        <v>47</v>
+      </c>
+      <c r="F671" t="n">
+        <v>49.87828826904297</v>
+      </c>
+      <c r="G671" s="2" t="n">
+        <v>39142</v>
+      </c>
+      <c r="H671" t="n">
+        <v>56</v>
+      </c>
+      <c r="I671" t="n">
+        <v>50.17645645141602</v>
+      </c>
+      <c r="J671" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K671" t="n">
+        <v>0.03312979804145044</v>
+      </c>
+      <c r="L671" t="n">
+        <v>48.32118776109479</v>
+      </c>
+      <c r="M671" t="n">
+        <v>3</v>
+      </c>
+      <c r="N671" t="n">
+        <v>1</v>
+      </c>
+      <c r="O671" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>GIPCL.NS</t>
+        </is>
+      </c>
+      <c r="B672" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="C672" t="n">
+        <v>221</v>
+      </c>
+      <c r="D672" s="2" t="n">
+        <v>43586</v>
+      </c>
+      <c r="E672" t="n">
+        <v>202</v>
+      </c>
+      <c r="F672" t="n">
+        <v>81.90000152587891</v>
+      </c>
+      <c r="G672" s="2" t="n">
+        <v>44044</v>
+      </c>
+      <c r="H672" t="n">
+        <v>217</v>
+      </c>
+      <c r="I672" t="n">
+        <v>82.69999694824219</v>
+      </c>
+      <c r="J672" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K672" t="n">
+        <v>0.05333302815755208</v>
+      </c>
+      <c r="L672" t="n">
+        <v>71.12672983805339</v>
+      </c>
+      <c r="M672" t="n">
+        <v>3</v>
+      </c>
+      <c r="N672" t="n">
+        <v>1</v>
+      </c>
+      <c r="O672" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>SRF.NS</t>
+        </is>
+      </c>
+      <c r="B673" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C673" t="n">
+        <v>267</v>
+      </c>
+      <c r="D673" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="E673" t="n">
+        <v>246</v>
+      </c>
+      <c r="F673" t="n">
+        <v>2082.10009765625</v>
+      </c>
+      <c r="G673" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="H673" t="n">
+        <v>263</v>
+      </c>
+      <c r="I673" t="n">
+        <v>2089.10009765625</v>
+      </c>
+      <c r="J673" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K673" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="L673" t="n">
+        <v>1980.805980009191</v>
+      </c>
+      <c r="M673" t="n">
+        <v>3</v>
+      </c>
+      <c r="N673" t="n">
+        <v>1</v>
+      </c>
+      <c r="O673" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>INDHOTEL.NS</t>
+        </is>
+      </c>
+      <c r="B674" s="2" t="n">
+        <v>39356</v>
+      </c>
+      <c r="C674" t="n">
+        <v>63</v>
+      </c>
+      <c r="D674" s="2" t="n">
+        <v>39052</v>
+      </c>
+      <c r="E674" t="n">
+        <v>53</v>
+      </c>
+      <c r="F674" t="n">
+        <v>148.6471862792969</v>
+      </c>
+      <c r="G674" s="2" t="n">
+        <v>39083</v>
+      </c>
+      <c r="H674" t="n">
+        <v>54</v>
+      </c>
+      <c r="I674" t="n">
+        <v>148.6471862792969</v>
+      </c>
+      <c r="J674" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K674" t="n">
+        <v>0</v>
+      </c>
+      <c r="L674" t="n">
+        <v>148.6471862792969</v>
+      </c>
+      <c r="M674" t="n">
+        <v>3</v>
+      </c>
+      <c r="N674" t="n">
+        <v>1</v>
+      </c>
+      <c r="O674" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>PRSMJOHNSN.NS</t>
+        </is>
+      </c>
+      <c r="B675" s="2" t="n">
+        <v>41306</v>
+      </c>
+      <c r="C675" t="n">
+        <v>127</v>
+      </c>
+      <c r="D675" s="2" t="n">
+        <v>40634</v>
+      </c>
+      <c r="E675" t="n">
+        <v>105</v>
+      </c>
+      <c r="F675" t="n">
+        <v>59.84999847412109</v>
+      </c>
+      <c r="G675" s="2" t="n">
+        <v>41183</v>
+      </c>
+      <c r="H675" t="n">
+        <v>123</v>
+      </c>
+      <c r="I675" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="J675" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K675" t="n">
+        <v>-0.0194443596733937</v>
+      </c>
+      <c r="L675" t="n">
+        <v>61.89165623982743</v>
+      </c>
+      <c r="M675" t="n">
+        <v>3</v>
+      </c>
+      <c r="N675" t="n">
+        <v>1</v>
+      </c>
+      <c r="O675" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>WAAREERTL.BO</t>
+        </is>
+      </c>
+      <c r="B676" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="C676" t="n">
+        <v>40</v>
+      </c>
+      <c r="D676" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="E676" t="n">
+        <v>35</v>
+      </c>
+      <c r="F676" t="n">
+        <v>2.16176509641749</v>
+      </c>
+      <c r="G676" s="2" t="n">
+        <v>42430</v>
+      </c>
+      <c r="H676" t="n">
+        <v>36</v>
+      </c>
+      <c r="I676" t="n">
+        <v>2.16176509641749</v>
+      </c>
+      <c r="J676" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K676" t="n">
+        <v>0</v>
+      </c>
+      <c r="L676" t="n">
+        <v>2.16176509641749</v>
+      </c>
+      <c r="M676" t="n">
+        <v>3</v>
+      </c>
+      <c r="N676" t="n">
+        <v>1</v>
+      </c>
+      <c r="O676" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>NIBE.BO</t>
+        </is>
+      </c>
+      <c r="B677" s="2" t="n">
+        <v>42736</v>
+      </c>
+      <c r="C677" t="n">
+        <v>32</v>
+      </c>
+      <c r="D677" s="2" t="n">
+        <v>42430</v>
+      </c>
+      <c r="E677" t="n">
+        <v>24</v>
+      </c>
+      <c r="F677" t="n">
+        <v>8.479999542236328</v>
+      </c>
+      <c r="G677" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="H677" t="n">
+        <v>28</v>
+      </c>
+      <c r="I677" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J677" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K677" t="n">
+        <v>0.005000114440917969</v>
+      </c>
+      <c r="L677" t="n">
+        <v>8.359996795654297</v>
+      </c>
+      <c r="M677" t="n">
+        <v>3</v>
+      </c>
+      <c r="N677" t="n">
+        <v>1</v>
+      </c>
+      <c r="O677" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>TATACOMM.NS</t>
+        </is>
+      </c>
+      <c r="B678" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="C678" t="n">
+        <v>212</v>
+      </c>
+      <c r="D678" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="E678" t="n">
+        <v>185</v>
+      </c>
+      <c r="F678" t="n">
+        <v>468.1583862304688</v>
+      </c>
+      <c r="G678" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="H678" t="n">
+        <v>208</v>
+      </c>
+      <c r="I678" t="n">
+        <v>464.7999877929688</v>
+      </c>
+      <c r="J678" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K678" t="n">
+        <v>-0.1460173233695652</v>
+      </c>
+      <c r="L678" t="n">
+        <v>495.1715910538384</v>
+      </c>
+      <c r="M678" t="n">
+        <v>3</v>
+      </c>
+      <c r="N678" t="n">
+        <v>1</v>
+      </c>
+      <c r="O678" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>SIL.NS</t>
+        </is>
+      </c>
+      <c r="B679" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="C679" t="n">
+        <v>268</v>
+      </c>
+      <c r="D679" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="E679" t="n">
+        <v>245</v>
+      </c>
+      <c r="F679" t="n">
+        <v>38.59999847412109</v>
+      </c>
+      <c r="G679" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="H679" t="n">
+        <v>264</v>
+      </c>
+      <c r="I679" t="n">
+        <v>38.31782259000158</v>
+      </c>
+      <c r="J679" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K679" t="n">
+        <v>-0.0148513623220795</v>
+      </c>
+      <c r="L679" t="n">
+        <v>42.23858224303056</v>
+      </c>
+      <c r="M679" t="n">
+        <v>3</v>
+      </c>
+      <c r="N679" t="n">
+        <v>1</v>
+      </c>
+      <c r="O679" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
